--- a/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/additive/ranking_test3/results.xlsx
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.025</v>
+        <v>0.146</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.115</v>
+        <v>24.744</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29.90494714130739</v>
+        <v>16.6641830052662</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29.90496064442923</v>
+        <v>18.51576163231766</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.90496241802291</v>
+        <v>19.09313567503365</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>29.90458394665262</v>
+        <v>14.77060187839768</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>29.90458986011255</v>
+        <v>15.83111089320326</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.90459254794404</v>
+        <v>16.55147569682563</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>29.90506031717658</v>
+        <v>15.3892661234456</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.90506537694901</v>
+        <v>16.45880709261738</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.90506798565596</v>
+        <v>17.23006196908781</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.90329151108383</v>
+        <v>15.82549279751385</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.90330140468423</v>
+        <v>16.99112686985689</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>29.90330306770282</v>
+        <v>17.39390092371091</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29.90315675251238</v>
+        <v>16.06182568786398</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.90317497711104</v>
+        <v>18.05541420955323</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.90317732728809</v>
+        <v>18.64291586056259</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>29.90300348976726</v>
+        <v>15.74692192408905</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.90304330853755</v>
+        <v>19.23719846660353</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.90305605639981</v>
+        <v>20.54573394611455</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>29.90247655819537</v>
+        <v>10.64385556259948</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29.90250309566847</v>
+        <v>13.06944177856029</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.90251653743019</v>
+        <v>14.29319944918348</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>29.90319701629625</v>
+        <v>11.44199931936434</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.90322016719819</v>
+        <v>13.84724829899458</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29.90443614287653</v>
+        <v>17.9238492530875</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.90447076691499</v>
+        <v>22.67608069073553</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.90447414043619</v>
+        <v>23.08695674686676</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>29.90407001342262</v>
+        <v>20.38560327780935</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.90408418093242</v>
+        <v>22.73891278088441</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>29.90408496069828</v>
+        <v>23.17508964453026</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>29.90460226894321</v>
+        <v>19.84216485453728</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.9046145598607</v>
+        <v>22.23914956222581</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>29.90461619851424</v>
+        <v>22.82577014423016</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>29.90262212705683</v>
+        <v>23.21810497598885</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>29.90264781545568</v>
+        <v>25.69842706223556</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>29.90264807646953</v>
+        <v>26.00172479030538</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>29.90245549713963</v>
+        <v>23.5065936955575</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>29.9025059026293</v>
+        <v>27.73319759583006</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>29.90250761113938</v>
+        <v>28.20189862785019</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>29.90279409491217</v>
+        <v>19.79504511334519</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>29.9029266226432</v>
+        <v>29.5013140051946</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29.90293973329675</v>
+        <v>31.12008189132645</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>29.90254297271179</v>
+        <v>26.94699170109231</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.90263298270837</v>
+        <v>33.30526457901296</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>29.90264213765223</v>
+        <v>34.42424677146455</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>29.90317634636364</v>
+        <v>25.21922143268379</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>29.90325531949639</v>
+        <v>31.4232291384198</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>29.90460009965399</v>
+        <v>15.38386871459023</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.90463216098782</v>
+        <v>20.12363962625295</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>29.90463525213361</v>
+        <v>20.56858026163113</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.9042469644079</v>
+        <v>18.00874689754573</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.90425940300152</v>
+        <v>20.37367413910071</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.90426087441788</v>
+        <v>20.88373615738242</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>29.90475905946226</v>
+        <v>17.57506965081655</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.90476980230054</v>
+        <v>19.98020126070806</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>29.90477187209557</v>
+        <v>20.65477387383542</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>29.90285704584259</v>
+        <v>20.79248818964346</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>29.90288057344258</v>
+        <v>23.27447031666531</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>29.90288118794036</v>
+        <v>23.61057021900297</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.90269960091745</v>
+        <v>21.19253579317112</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>29.9027459156937</v>
+        <v>25.41861902848164</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>29.90274817901749</v>
+        <v>25.93097107406059</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.90297304185807</v>
+        <v>16.92440729574269</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.90309570587996</v>
+        <v>26.59624306614644</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>29.90311130178377</v>
+        <v>28.33566529152667</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.90270869963013</v>
+        <v>23.63969180559523</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.90279070147914</v>
+        <v>30.0538048439997</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>29.9028035419211</v>
+        <v>31.25551785282167</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>29.90333270768751</v>
+        <v>22.09183206205643</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>29.9034043070091</v>
+        <v>28.3391552951382</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>29.90568961061476</v>
+        <v>14.61276029833055</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>29.90570323296973</v>
+        <v>17.6500455871328</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>29.90570397826456</v>
+        <v>18.23455641376578</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.90542653034843</v>
+        <v>15.62792827881142</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>29.90543048210319</v>
+        <v>17.43541722879203</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>29.90543208718301</v>
+        <v>17.96082857942998</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>29.90579739329477</v>
+        <v>15.46971126786825</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.90580124159032</v>
+        <v>17.35706747942078</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>29.90580270701383</v>
+        <v>17.92309606781395</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>29.90440954478139</v>
+        <v>17.11274356770063</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>29.90441969012434</v>
+        <v>18.77538072427653</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>29.90442043940586</v>
+        <v>19.17526902833452</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>29.90429686702879</v>
+        <v>17.59641064214296</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>29.90431691874754</v>
+        <v>20.36218116911466</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>29.9043188501621</v>
+        <v>21.00282237432481</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>29.90421821683729</v>
+        <v>17.66801988665572</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>29.90426233154267</v>
+        <v>23.12735798360972</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>29.90427935611698</v>
+        <v>25.44955106258238</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>29.90389980547342</v>
+        <v>20.94114218026212</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.90392370468994</v>
+        <v>24.99389092862649</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>29.90393960102877</v>
+        <v>26.46101018282897</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>29.90443243032343</v>
+        <v>19.99583862632204</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.9044535152432</v>
+        <v>24.02363741084185</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.90323643252863</v>
+        <v>15.1470887206641</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>29.90053126629252</v>
+        <v>14.38211442696482</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>29.9005594702365</v>
+        <v>16.21019262210836</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.90057043211923</v>
+        <v>17.05153113790483</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>29.90030343735413</v>
+        <v>15.04331081525984</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.90035227026268</v>
+        <v>17.99912021122106</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.90037075038951</v>
+        <v>19.30708395941991</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.90242456438558</v>
+        <v>18.1865532933069</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>29.90246408285058</v>
+        <v>21.79155685686342</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>29.9024786756209</v>
+        <v>23.24716758870743</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.90185469133101</v>
+        <v>13.33917721202305</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.9018787623611</v>
+        <v>15.84881481128226</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>29.90189424307923</v>
+        <v>17.17804213529627</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>29.90264818897525</v>
+        <v>14.01374092009891</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.90266880709649</v>
+        <v>16.48637436075203</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>29.90268635683307</v>
+        <v>17.86694086612484</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>29.89971116912893</v>
+        <v>17.31058254255304</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>29.89973842100541</v>
+        <v>19.13423947312375</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.89975003705534</v>
+        <v>20.07933304037607</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>29.89946027905406</v>
+        <v>17.85810846919857</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>29.8995094821409</v>
+        <v>20.78655130596616</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>29.8995297667047</v>
+        <v>22.26959344131776</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>29.90327017233826</v>
+        <v>32.55731145862678</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>29.90077508536822</v>
+        <v>36.61089042326243</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>29.9008638945124</v>
+        <v>41.22096815741186</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.90087103198782</v>
+        <v>42.17812302674928</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>29.90050308533916</v>
+        <v>37.26074851984364</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>29.9006581616373</v>
+        <v>44.61776814928123</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>29.90067188276309</v>
+        <v>46.20000432966374</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>29.90217976418285</v>
+        <v>27.92391953931709</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>29.90232503135808</v>
+        <v>37.83048465069894</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>29.90233874644025</v>
+        <v>39.39477661399371</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>29.90191882436995</v>
+        <v>37.83483118637631</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>29.90201615893283</v>
+        <v>44.19572713921615</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>29.90202094770606</v>
+        <v>45.22208337946082</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>29.9026153309798</v>
+        <v>35.47150385894607</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>29.90269859204579</v>
+        <v>41.62014331418072</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>29.90270857455738</v>
+        <v>42.63132949193053</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>29.89998188140783</v>
+        <v>48.4173608146455</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>29.90007425238706</v>
+        <v>52.96020539542725</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>29.90008026115073</v>
+        <v>53.8414618333239</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>29.89968465943599</v>
+        <v>48.89229253928819</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>29.8998473023075</v>
+        <v>56.12663014708008</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>29.89986081942732</v>
+        <v>57.58873572652185</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>29.90342195886398</v>
+        <v>29.54874429749448</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.90098079613986</v>
+        <v>33.2409205044149</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>29.9010618872992</v>
+        <v>37.86752556718834</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>29.90107266354789</v>
+        <v>38.9089292725515</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>29.90072292179969</v>
+        <v>34.00093194082609</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>29.90086486327074</v>
+        <v>41.37365062219762</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>29.90088403851623</v>
+        <v>43.09939379168592</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>29.90238469365895</v>
+        <v>25.52096642162045</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.90252050289214</v>
+        <v>35.41419018198403</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>29.90253676803645</v>
+        <v>37.08031749770088</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>29.90211407963674</v>
+        <v>35.05110261987564</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>29.9022036465477</v>
+        <v>41.49343616967016</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>29.90221304590409</v>
+        <v>42.6015224276039</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>29.90279872915127</v>
+        <v>32.84474800010265</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>29.90287508994865</v>
+        <v>39.06304560164574</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.90288873007266</v>
+        <v>40.15172305102755</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>29.90022567348471</v>
+        <v>45.60236094262935</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>29.90031024924661</v>
+        <v>50.18028277854596</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>29.90032068837873</v>
+        <v>51.12781418009703</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.89994322571614</v>
+        <v>46.16159496044461</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>29.90009213006078</v>
+        <v>53.44076825613948</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>29.90011176246468</v>
+        <v>55.01147828369816</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.90447167228135</v>
+        <v>25.76559883543359</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.90242146101911</v>
+        <v>25.48304747824186</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>29.90244952020997</v>
+        <v>28.32878236308708</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>29.90246739018328</v>
+        <v>29.56588812188182</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>29.90223949343256</v>
+        <v>25.69990200641078</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>29.90228969973641</v>
+        <v>30.19211193586322</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>29.90231765354501</v>
+        <v>32.22621115436157</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.90387723418482</v>
+        <v>28.19330069277514</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>29.90392850139923</v>
+        <v>33.67638126644577</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>29.90394306077199</v>
+        <v>36.04724923954542</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>29.90356329051908</v>
+        <v>33.41679346234238</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.90359124599196</v>
+        <v>37.48418399237219</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>29.9036060304746</v>
+        <v>39.15051512762211</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>29.90412919493683</v>
+        <v>32.06580937999848</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>29.90415345615212</v>
+        <v>36.05601317209511</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>29.90417019773233</v>
+        <v>37.98255796607289</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>29.90198518541107</v>
+        <v>38.21202630965626</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>29.90201699439704</v>
+        <v>41.11927266637143</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>29.90203470980828</v>
+        <v>42.4532476962555</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>29.90178013093817</v>
+        <v>37.84058617311481</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>29.90183778695442</v>
+        <v>42.44837871434669</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>29.90186595080005</v>
+        <v>44.61381920991665</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>29.90246497684287</v>
+        <v>17.4221313090918</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.90249122786093</v>
+        <v>19.02171438814081</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>29.90249402088896</v>
+        <v>19.48142174080197</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>29.9018513971837</v>
+        <v>15.83921503669796</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.90186587733106</v>
+        <v>16.76461848388093</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>29.90186934264423</v>
+        <v>17.33510601626921</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>29.90266313933897</v>
+        <v>16.39093595740555</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29.90267582974305</v>
+        <v>17.33718843026012</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>29.90267929373101</v>
+        <v>17.96124120627365</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>29.89964400509612</v>
+        <v>16.53560820430965</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>29.89966489947454</v>
+        <v>17.56380131541128</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>29.89966677413095</v>
+        <v>17.89477937854335</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>29.89940943952398</v>
+        <v>16.74885866581126</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29.89944693511438</v>
+        <v>18.50804026195554</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.89944940007163</v>
+        <v>18.99578454805529</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>29.89897016024148</v>
+        <v>17.32987902518677</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>29.89904011887119</v>
+        <v>20.31619950746907</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.89906254051294</v>
+        <v>21.40664828304255</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>29.89803529125188</v>
+        <v>13.46594545275957</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>29.89808482978961</v>
+        <v>15.56442032126376</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>29.89810856990568</v>
+        <v>16.55454558836188</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>29.89930105142281</v>
+        <v>14.07099492876339</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>29.89934363466556</v>
+        <v>16.11331393674596</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>29.90158714689422</v>
+        <v>16.11278420304105</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>29.90165128254711</v>
+        <v>19.94467397851007</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>29.90165662660482</v>
+        <v>20.23733725818158</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>29.90098249192783</v>
+        <v>17.01660736805811</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.90101383746419</v>
+        <v>18.86780256629548</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>29.90101581344672</v>
+        <v>19.29823087491829</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>29.90188119215965</v>
+        <v>16.93444146077646</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>29.90190877398786</v>
+        <v>18.84900404827631</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>29.90191198157596</v>
+        <v>19.39766879928768</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>29.89852723511478</v>
+        <v>18.95763246129528</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>29.89857651747142</v>
+        <v>20.96962224492989</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>29.89857822716618</v>
+        <v>21.26885071952204</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>29.89824473829384</v>
+        <v>19.30330964832103</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>29.89833690566659</v>
+        <v>22.74552049214284</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>29.89834100308613</v>
+        <v>23.20621065465012</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>29.89867307695375</v>
+        <v>15.83429426169618</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.89890777288087</v>
+        <v>23.88932092608098</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>29.8989299078917</v>
+        <v>25.16521482715426</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>29.89822686931481</v>
+        <v>20.29192204233186</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>29.89839330575222</v>
+        <v>25.37989348137586</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>29.89840792345773</v>
+        <v>26.29110017946935</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>29.89933439150677</v>
+        <v>19.17010937339126</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>29.89948084870452</v>
+        <v>24.16808895015608</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>29.90187276574327</v>
+        <v>14.381416447912</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>29.90193231390182</v>
+        <v>18.21951276871779</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>29.90193708436067</v>
+        <v>18.53737108079355</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>29.9012892615278</v>
+        <v>15.46294403029062</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>29.90131743687457</v>
+        <v>17.33527312133467</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>29.90132050337828</v>
+        <v>17.82223313285355</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>29.90215374384318</v>
+        <v>15.45904730185108</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>29.90217848548812</v>
+        <v>17.39477895752423</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>29.90218235204826</v>
+        <v>18.01387724038198</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>29.89893252924333</v>
+        <v>17.36048539887562</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>29.89897777020692</v>
+        <v>19.3778800210204</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>29.89898016831638</v>
+        <v>19.70037130395988</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>29.89866513309428</v>
+        <v>17.7730325673359</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>29.89874998437645</v>
+        <v>21.21959495613853</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>29.89875508581252</v>
+        <v>21.7102965701697</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>29.89899675364988</v>
+        <v>14.14600539009616</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>29.8992140354168</v>
+        <v>22.22097120219945</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>29.89924015714639</v>
+        <v>23.55992180377095</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>29.8985324548885</v>
+        <v>18.37101277763977</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>29.89868462080153</v>
+        <v>23.53589542581678</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>29.89870525605691</v>
+        <v>24.49607574079055</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>29.89961983373766</v>
+        <v>17.36758534816608</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>29.89975321560933</v>
+        <v>22.44063622505318</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>29.90372226107226</v>
+        <v>14.2875616458992</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>29.90374769130531</v>
+        <v>16.81366613529536</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>29.90374851023694</v>
+        <v>17.33785920929725</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>29.90327713121248</v>
+        <v>14.36232353727892</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>29.90328743810971</v>
+        <v>15.86908567998124</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>29.90328896875279</v>
+        <v>16.39356135982157</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>29.90391092006503</v>
+        <v>14.43808559540999</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>29.90392070464495</v>
+        <v>16.02209455050275</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>29.90392214057821</v>
+        <v>16.57138910901783</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>29.90153478636994</v>
+        <v>15.4887966272792</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>29.90155455224538</v>
+        <v>16.8574079219695</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>29.90155533351152</v>
+        <v>17.25565055243715</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>29.90134101142263</v>
+        <v>16.01438889213274</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>29.90137850403658</v>
+        <v>18.28592915120757</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>29.90138043191799</v>
+        <v>18.9228937442148</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>29.90109881902311</v>
+        <v>18.28009795901859</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>29.90117758929415</v>
+        <v>22.91189410266941</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>29.90120805624846</v>
+        <v>24.66590939051147</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>29.90052698810408</v>
+        <v>20.42186582578216</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>29.90057422061003</v>
+        <v>23.79916343652172</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>29.90059947079027</v>
+        <v>24.91875582753069</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>29.90146297495112</v>
+        <v>19.82019058072846</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>29.90150423598583</v>
+        <v>23.18971740156793</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>29.89937131692986</v>
+        <v>17.19385134161498</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>29.89463007154153</v>
+        <v>16.64377705492895</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>29.89468170624998</v>
+        <v>18.28563824735627</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>29.894701992319</v>
+        <v>18.94392303511105</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>29.89423695767049</v>
+        <v>17.21978001906077</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.89432680404407</v>
+        <v>19.89168186531464</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>29.89435808393955</v>
+        <v>20.90619388556253</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>29.89796446235358</v>
+        <v>20.41488220465629</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>29.89803495246718</v>
+        <v>23.50849195384862</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>29.89806010938569</v>
+        <v>24.75877693612436</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>29.89695041984169</v>
+        <v>16.80496135563863</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>29.89699814549376</v>
+        <v>18.96418649915738</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>29.8970234275924</v>
+        <v>20.0657825865006</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>29.8983443865062</v>
+        <v>17.29341282168699</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.89838471883511</v>
+        <v>19.38489807379936</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.89841339421579</v>
+        <v>20.55744577292114</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>29.89319552690418</v>
+        <v>20.14277829366758</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>29.89324783452111</v>
+        <v>21.76916143519183</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>29.89326778881195</v>
+        <v>22.53562125454701</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>29.89276133092713</v>
+        <v>20.54836783129772</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>29.89285444236448</v>
+        <v>23.1776727274632</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>29.89288675372051</v>
+        <v>24.37415198660415</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>29.89950432519236</v>
+        <v>25.06447841036439</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>29.89514099111284</v>
+        <v>27.98919481814243</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>29.89530070507307</v>
+        <v>31.73634380524977</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.89531547448883</v>
+        <v>32.51062478179401</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>29.89466196020202</v>
+        <v>28.83091305465454</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>29.89494221305665</v>
+        <v>34.83508072481321</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>29.89496555775826</v>
+        <v>36.1144323255348</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>29.89761771649749</v>
+        <v>23.40284772920499</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>29.89787493578349</v>
+        <v>31.63090541840565</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>29.89789689215411</v>
+        <v>32.85958729466113</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>29.89714658315737</v>
+        <v>30.32504372109838</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>29.89732658792443</v>
+        <v>35.41301539703846</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>29.89733423500261</v>
+        <v>36.26618062481065</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>29.89836648385378</v>
+        <v>28.68449115853</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>29.89852158397577</v>
+        <v>33.63893628374412</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>29.89853680335099</v>
+        <v>34.43732413243402</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>29.89375761203442</v>
+        <v>38.73099505063129</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>29.89392483027076</v>
+        <v>42.42819775146702</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>29.89393707123961</v>
+        <v>43.14722684251866</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>29.89323374828335</v>
+        <v>39.35190242158883</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>29.89352841176814</v>
+        <v>45.26604802851857</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>29.89355006900363</v>
+        <v>46.45662870779087</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>29.89978122985298</v>
+        <v>23.37405325805809</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>29.89552432489215</v>
+        <v>26.01202427043414</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>29.89567075548586</v>
+        <v>29.79385680235316</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>29.89569092615765</v>
+        <v>30.61596959004815</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>29.89507149116043</v>
+        <v>26.89651719403169</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>29.89532868990651</v>
+        <v>32.94609330454504</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>29.89536047508598</v>
+        <v>34.30681193973827</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>29.89798350189144</v>
+        <v>22.02865074908649</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>29.89822352160263</v>
+        <v>30.2935096358526</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>29.89824962796024</v>
+        <v>31.56436833532902</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>29.89750256946862</v>
+        <v>28.73112655002823</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>29.8976681848503</v>
+        <v>33.91501522586247</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>29.89768363382404</v>
+        <v>34.81730181415048</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>29.89869774101505</v>
+        <v>27.19704601451538</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>29.89884006263274</v>
+        <v>32.24687251142933</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>29.89886141598575</v>
+        <v>33.08188261806272</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>29.89420665883697</v>
+        <v>37.09584593873376</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>29.89436029395844</v>
+        <v>40.84511246268466</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>29.89437938605523</v>
+        <v>41.596181532683</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>29.89371114187236</v>
+        <v>37.73923073772031</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>29.89398157858983</v>
+        <v>43.72734224864163</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>29.89401307421835</v>
+        <v>44.96849516827005</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>29.90153438284666</v>
+        <v>24.53332789753964</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.89793332707408</v>
+        <v>23.91997528177277</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>29.89798462612255</v>
+        <v>26.32527456906329</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>29.89801452441737</v>
+        <v>27.27497976647549</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>29.89761646043862</v>
+        <v>24.11097618785542</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>29.89770537816565</v>
+        <v>27.92043843076826</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>29.89775452064451</v>
+        <v>29.4814340058166</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>29.90050560796812</v>
+        <v>27.76231327388788</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>29.90059615021039</v>
+        <v>32.4273696639173</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>29.9006238533783</v>
+        <v>34.27526332307974</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>29.89993530851988</v>
+        <v>31.78015799108021</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>29.89998935057271</v>
+        <v>35.21032711502001</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>29.90001439390234</v>
+        <v>36.5186461148224</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>29.90093176814804</v>
+        <v>30.77507064008997</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>29.90097821986455</v>
+        <v>34.155703824459</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>29.9010077368076</v>
+        <v>35.67714531056981</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>29.89716162326817</v>
+        <v>35.52294968768069</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>29.89721877680344</v>
+        <v>38.00833336463361</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>29.89725046916399</v>
+        <v>39.05868125352389</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>29.89680419555504</v>
+        <v>35.17553198133587</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>29.89690500289374</v>
+        <v>39.12509627551923</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>29.89695717695214</v>
+        <v>40.82988248634315</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>29.9040094991673</v>
+        <v>18.8525104421847</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>29.90402800965694</v>
+        <v>20.33225707032034</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>29.90403012959525</v>
+        <v>20.74646199609392</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>29.90355246991493</v>
+        <v>17.43548811817509</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>29.90356298903625</v>
+        <v>18.30366608463333</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>29.90356567964359</v>
+        <v>18.81324910594645</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>29.90415451761843</v>
+        <v>17.92187966603806</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>29.90416369912638</v>
+        <v>18.81600103236371</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>29.90416637576566</v>
+        <v>19.37128200000787</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>29.90191740459672</v>
+        <v>18.05435313499621</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>29.90193214191</v>
+        <v>19.00648916407665</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>29.90193361630098</v>
+        <v>19.30493015538477</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>29.90174505762494</v>
+        <v>18.22500171124491</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>29.9017713028282</v>
+        <v>19.85076181516545</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>29.9017732657402</v>
+        <v>20.29199595558752</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>29.90142185592682</v>
+        <v>18.11598406549392</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.90147238236656</v>
+        <v>20.86249430768561</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>29.90148856530179</v>
+        <v>21.8716733784557</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>29.90071712806857</v>
+        <v>14.63234850358652</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>29.9007537562304</v>
+        <v>16.57632164335474</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>29.90077103334855</v>
+        <v>17.4774627320792</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>29.90165872492521</v>
+        <v>15.19405232740774</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>29.90169040214263</v>
+        <v>17.07818151404262</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>29.90334966805303</v>
+        <v>18.27677793010128</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>29.90339585909697</v>
+        <v>21.84568705737619</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>29.90339992257717</v>
+        <v>22.10906049729318</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>29.90289446443852</v>
+        <v>19.32815073243928</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.90291767072391</v>
+        <v>21.07260007595173</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>29.90291908044133</v>
+        <v>21.48753958241648</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>29.90356377953788</v>
+        <v>19.19809996112816</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>29.90358409419724</v>
+        <v>21.02020799269263</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>29.90358645137253</v>
+        <v>21.53700588530372</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>29.90106879955128</v>
+        <v>21.07963752654188</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>29.90110419333273</v>
+        <v>22.94325900298458</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>29.9011053621036</v>
+        <v>23.22367987666014</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>29.90086246206874</v>
+        <v>21.31608366034192</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>29.90092849308042</v>
+        <v>24.49602907506091</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>29.90093145421881</v>
+        <v>24.92495310230491</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>29.90117027083267</v>
+        <v>16.56265823956927</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>29.90133986051107</v>
+        <v>23.90791912002099</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.90135674868549</v>
+        <v>25.08303842999281</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>29.90081130563297</v>
+        <v>20.67774390373135</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>29.90093405683869</v>
+        <v>25.31885858538053</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>29.90094480265238</v>
+        <v>26.16937152874117</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>29.90172149367528</v>
+        <v>19.6746763434403</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>29.90054582035409</v>
+        <v>24.23418455616288</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>29.9035718573262</v>
+        <v>16.77287395946999</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>29.90361011900493</v>
+        <v>20.34734268071286</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>29.90365291478841</v>
+        <v>20.63670590028462</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>29.9031347353967</v>
+        <v>18.01039724951762</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>29.90314830193427</v>
+        <v>19.76775769090569</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>29.90313786878523</v>
+        <v>20.237518143505</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>29.90377632646743</v>
+        <v>17.94418903619059</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>29.90378851303412</v>
+        <v>19.78004743241526</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>29.90381516321722</v>
+        <v>20.36472844504532</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>29.90137277283965</v>
+        <v>19.72517187536891</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>29.90139932844482</v>
+        <v>21.58948762217985</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>29.90139731226315</v>
+        <v>21.89317114779418</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>29.90117958191761</v>
+        <v>20.02128128123235</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>29.90123282089076</v>
+        <v>23.19879048490214</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>29.9023708974011</v>
+        <v>23.65822663810406</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>29.90148256603341</v>
+        <v>15.11797775171552</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>29.90162392088073</v>
+        <v>22.48284946593069</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>29.90188374359586</v>
+        <v>23.70917590701699</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>29.90112440738331</v>
+        <v>19.03387073642491</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>29.90121200083566</v>
+        <v>23.74345352945491</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>29.90108401693705</v>
+        <v>24.63367070374976</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>29.9019297326896</v>
+        <v>18.13887148029452</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>29.90077240186301</v>
+        <v>22.76603761899025</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>29.90494776247155</v>
+        <v>16.37530945799056</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>29.90496381032779</v>
+        <v>18.72185433793764</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>29.90498159703828</v>
+        <v>19.19529800459754</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>29.90461591893909</v>
+        <v>16.55608949533743</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>29.90462015746094</v>
+        <v>17.96239668809462</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>29.90461854993803</v>
+        <v>18.44445357106495</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>29.90508528494243</v>
+        <v>16.58785987400214</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.90508973087944</v>
+        <v>18.06895331333641</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>29.90509030924842</v>
+        <v>18.57356427083351</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>29.90332380191144</v>
+        <v>17.61201821133953</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>29.90333529407186</v>
+        <v>18.8700018664851</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>29.90333546381381</v>
+        <v>19.2364216337572</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>29.90318292503758</v>
+        <v>18.05050274716655</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>29.90320627895614</v>
+        <v>20.1329837527366</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>29.90369305842673</v>
+        <v>20.71887302336592</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>29.90302071675522</v>
+        <v>18.63796305374643</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>29.90307272412279</v>
+        <v>22.85230028299651</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>29.90316437078634</v>
+        <v>24.4223052055783</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>29.90259221278216</v>
+        <v>20.56110374240311</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>29.90261758523106</v>
+        <v>23.62861812233583</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>29.90259770918874</v>
+        <v>24.63470805355825</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>29.90328504094647</v>
+        <v>20.04416647708794</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>29.90296720357326</v>
+        <v>23.10793365905538</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>29.9017613058133</v>
+        <v>18.05888585594322</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>29.89819758613564</v>
+        <v>17.50195493891044</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>29.89822619363316</v>
+        <v>19.03380048484327</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.8982374150258</v>
+        <v>19.62605010875603</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>29.89790911722901</v>
+        <v>18.02362960647014</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>29.897963016856</v>
+        <v>20.51873005369636</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>29.89808083222466</v>
+        <v>21.42929375214845</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>29.90069033615428</v>
+        <v>21.20709137310633</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>29.90073537310861</v>
+        <v>24.05937557944825</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>29.90076787151825</v>
+        <v>25.22297003685415</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>29.89994499490674</v>
+        <v>17.97618013474484</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>29.8999709628477</v>
+        <v>19.98118016330048</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>29.8999316105803</v>
+        <v>20.99201751479291</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>29.90097412969946</v>
+        <v>18.43146484426867</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29.9009968074515</v>
+        <v>20.36667103424958</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.90106969752832</v>
+        <v>21.43977886509855</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>29.89713097135326</v>
+        <v>20.98023282283716</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>29.89715946496835</v>
+        <v>22.49726277283782</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>29.89717089268789</v>
+        <v>23.19896894819169</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>29.8968123959351</v>
+        <v>21.32165921622455</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>29.89686765211707</v>
+        <v>23.77528256510182</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>29.89692133701594</v>
+        <v>24.8704704294038</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>29.90185306819556</v>
+        <v>25.06683412717983</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>29.89854441210457</v>
+        <v>27.62596375410843</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>29.89863532967287</v>
+        <v>31.05413468322125</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>29.89864764136656</v>
+        <v>31.77362060244867</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>29.8982009656667</v>
+        <v>28.39716638370255</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>29.89837050152192</v>
+        <v>33.89324283633314</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>29.89859860192395</v>
+        <v>35.08043052842382</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>29.90047619736139</v>
+        <v>23.72143411525344</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>29.90064409138132</v>
+        <v>31.21928491011329</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>29.90098871575331</v>
+        <v>32.33127874491423</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>29.90010872435835</v>
+        <v>30.05287822666789</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>29.90021256084453</v>
+        <v>34.69510249906203</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>29.9000404185738</v>
+        <v>35.47820398207983</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>29.90101104035757</v>
+        <v>28.57890938070412</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>29.90110301788673</v>
+        <v>33.09905008649343</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>29.90117039042195</v>
+        <v>33.82996145582476</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>29.89751766300813</v>
+        <v>37.63409749397744</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>29.89761177072638</v>
+        <v>41.02167313002938</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>29.89762230691858</v>
+        <v>41.67649107171334</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.89714279455907</v>
+        <v>38.18569465700849</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>29.89731955293272</v>
+        <v>43.60874455231811</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>29.89561066811225</v>
+        <v>44.69093869949362</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>29.90207362014553</v>
+        <v>23.62855412577623</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>29.89882896407502</v>
+        <v>25.91779646266844</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>29.89891148003363</v>
+        <v>29.37819376267311</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>29.89892644173028</v>
+        <v>30.13606193475568</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>29.89850288405292</v>
+        <v>26.71957548268957</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>29.89865728539273</v>
+        <v>32.25858616171352</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.89891073414024</v>
+        <v>33.51109753779264</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>29.90074078234179</v>
+        <v>22.52640352440846</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>29.9008978163416</v>
+        <v>30.05893839803734</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>29.90121705967018</v>
+        <v>31.20419564286683</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>29.90036914544325</v>
+        <v>28.66808211720949</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>29.90046467946338</v>
+        <v>33.395130051084</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>29.90031135728569</v>
+        <v>34.21917364455294</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>29.90125256845554</v>
+        <v>27.29167840265926</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>29.90133704178131</v>
+        <v>31.89691608912652</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>29.90142316975749</v>
+        <v>32.6579273966778</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>29.89785089798675</v>
+        <v>36.20054522424218</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>29.89793664425611</v>
+        <v>39.63564790723007</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>29.89795098815178</v>
+        <v>40.31520491970991</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>29.89749475547809</v>
+        <v>36.76720438423039</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>29.89765594159807</v>
+        <v>42.2584507230965</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>29.89521959540256</v>
+        <v>43.37907756350145</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.90330646284069</v>
+        <v>24.31216310772711</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.90065612587789</v>
+        <v>23.72326729038601</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>29.90068358007568</v>
+        <v>25.9044943183492</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>29.90070203456768</v>
+        <v>26.76605784892542</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.90042487304484</v>
+        <v>23.93740957135234</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>29.90047567415001</v>
+        <v>27.39108989644603</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>29.90075046266162</v>
+        <v>28.80888201864888</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>29.90258880174501</v>
+        <v>27.22693994216713</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>29.90264899803404</v>
+        <v>31.46218486065652</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.90277382362013</v>
+        <v>33.12517799299275</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>29.90215949496996</v>
+        <v>30.8505212151002</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>29.90218882769381</v>
+        <v>33.96637502726657</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>29.902153232847</v>
+        <v>35.14579268222192</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>29.90289666790077</v>
+        <v>29.96205636389192</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>29.90292304771175</v>
+        <v>33.03423763565435</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>29.90290876592787</v>
+        <v>34.40388565849931</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>29.90008787266486</v>
+        <v>34.25163233123202</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>29.90011870370395</v>
+        <v>36.50557241727371</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>29.9001410832869</v>
+        <v>37.45915697979567</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>29.8998289555722</v>
+        <v>33.98397323540937</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>29.8998873836468</v>
+        <v>37.56437298223635</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>29.89874333978674</v>
+        <v>39.11369768963352</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>29.90576573517133</v>
+        <v>22.14976508717005</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>29.90577454546761</v>
+        <v>23.00338093768037</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>29.90577786971403</v>
+        <v>23.26263392674355</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>29.9054943592683</v>
+        <v>20.95766109905404</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>29.90549692069043</v>
+        <v>21.46321917624131</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>29.90549612205677</v>
+        <v>21.77569273460925</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>29.90585680232059</v>
+        <v>21.27473550832035</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.90585912662169</v>
+        <v>21.79327021856481</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>29.90585672805217</v>
+        <v>22.12645180917942</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>29.90450036587519</v>
+        <v>21.57120172876407</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>29.90450592310198</v>
+        <v>22.10642904390035</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>29.90450655311358</v>
+        <v>22.28143914779149</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>29.90439501342754</v>
+        <v>21.82278601527107</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>29.90440589146495</v>
+        <v>22.7329003163377</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.90466669848765</v>
+        <v>22.98858384270591</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>29.90431061550384</v>
+        <v>17.95259669444242</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>29.9043351477978</v>
+        <v>19.54158422047993</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>29.90436300244423</v>
+        <v>20.16907599039746</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>29.90393105664561</v>
+        <v>14.58980702308874</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>29.90394486606558</v>
+        <v>15.71850449102634</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>29.90391736254368</v>
+        <v>16.29293941516037</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>29.90447193472044</v>
+        <v>15.2292586292166</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>29.90432043232425</v>
+        <v>16.34764768995436</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>29.90541837727128</v>
+        <v>20.48304832801907</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>29.90543985244233</v>
+        <v>22.72300920693064</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.90546066886564</v>
+        <v>22.93235375627343</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>29.90514242294013</v>
+        <v>21.1343009400006</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>29.90514779122794</v>
+        <v>22.25204660880114</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.90513962342692</v>
+        <v>22.48836713453688</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>29.90554583270318</v>
+        <v>20.914946041011</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>29.90555093714671</v>
+        <v>22.0575368976158</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>29.9055451867378</v>
+        <v>22.36917061679407</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.90403277167391</v>
+        <v>22.72662433073584</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>29.9040471075203</v>
+        <v>23.87690694370939</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>29.90404855655811</v>
+        <v>24.03126704972223</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.90390076242559</v>
+        <v>23.17099004192606</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>29.903932103655</v>
+        <v>25.12453143565114</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.90459175288814</v>
+        <v>25.35964470570126</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>29.9040648028434</v>
+        <v>16.24060447186123</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>29.90414172156184</v>
+        <v>20.68815424789344</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.90428558818135</v>
+        <v>21.60378842043388</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>29.90383168068137</v>
+        <v>18.24533948840548</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.90387628152508</v>
+        <v>21.20549556962727</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.90379739828417</v>
+        <v>21.8348096178137</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>29.90367217259762</v>
+        <v>17.84899455012541</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>29.90367247504963</v>
+        <v>20.72905169747855</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>29.90554496580672</v>
+        <v>19.48952147048673</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.90558344973459</v>
+        <v>21.7132779743982</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.90558403280151</v>
+        <v>21.94275707374621</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>29.90528003361448</v>
+        <v>20.22974354803034</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.90527723953214</v>
+        <v>21.33831383136073</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>29.90527891613318</v>
+        <v>21.61444307155819</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>29.90566698037174</v>
+        <v>20.05576334436151</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.9056683348179</v>
+        <v>21.18607063604999</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>29.9056664123339</v>
+        <v>21.54581901725714</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>29.90421740563855</v>
+        <v>21.79743268873647</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>29.90423177491065</v>
+        <v>22.94120681662742</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>29.90423170461597</v>
+        <v>23.11357306182511</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>29.90409270588294</v>
+        <v>22.28459290056861</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>29.90473369333299</v>
+        <v>24.22772323195352</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.904739988333</v>
+        <v>24.48701432341425</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.90421433625986</v>
+        <v>14.8783663896852</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>29.90441846895209</v>
+        <v>19.30302908494739</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.90441857816813</v>
+        <v>20.2744550609403</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>29.90397856199016</v>
+        <v>16.65971234061639</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.90393996001413</v>
+        <v>19.6337897493441</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.903948498281</v>
+        <v>20.30299448238252</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.90384551694508</v>
+        <v>16.35233724910819</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>29.90384599403301</v>
+        <v>19.24004139710643</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>29.90634681686277</v>
+        <v>21.00168101594487</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>29.90636251691804</v>
+        <v>22.42616294290677</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.90636205303923</v>
+        <v>22.70384976426027</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>29.90614475318896</v>
+        <v>21.1505461844014</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>29.90614388794251</v>
+        <v>21.99512327762392</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.90614565844247</v>
+        <v>22.23140546071176</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.90642704722519</v>
+        <v>21.07964495646169</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.90642413910896</v>
+        <v>21.96551566221493</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>29.90642288777548</v>
+        <v>22.22168094094587</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>29.90536914972389</v>
+        <v>22.00798962463389</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>29.90537542698402</v>
+        <v>22.76662750709507</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>29.9053760250204</v>
+        <v>22.95085861389869</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>29.90528228723877</v>
+        <v>22.39738341883054</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>29.90559484128442</v>
+        <v>23.65459724445188</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.9056031213962</v>
+        <v>23.95157881363556</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>29.90521338576742</v>
+        <v>18.21050047454194</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>29.90529144508366</v>
+        <v>20.6577765046829</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>29.9052913871992</v>
+        <v>21.85138392043723</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>29.90496823773919</v>
+        <v>18.84918743670436</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.90495246319622</v>
+        <v>20.69077362702475</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>29.9049649432754</v>
+        <v>21.42513596552676</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>29.9051586529084</v>
+        <v>18.67024130097685</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>29.90515315818183</v>
+        <v>20.48794661822925</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.90450897662367</v>
+        <v>16.95501393361629</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.90243733165252</v>
+        <v>16.33226421322322</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.90245650875718</v>
+        <v>17.16993001304108</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>29.90246013932368</v>
+        <v>17.56128399611496</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>29.90226019597776</v>
+        <v>16.95916705044502</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>29.90232863274586</v>
+        <v>18.30891922922829</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>29.90234191045803</v>
+        <v>18.91648053151982</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.90387036642306</v>
+        <v>19.87765144438884</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>29.90393243077204</v>
+        <v>21.54279403683869</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>29.90393207718947</v>
+        <v>22.26427669573138</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>29.90345878820264</v>
+        <v>16.78516716345873</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.90342853465416</v>
+        <v>17.96535085690813</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>29.90344030052452</v>
+        <v>18.59322012745796</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>29.9040549243221</v>
+        <v>17.34071851016883</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.90410673007947</v>
+        <v>18.50010033429823</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>29.90409960604962</v>
+        <v>19.15364862805096</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>29.90181209716804</v>
+        <v>18.6170514327163</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>29.90183005105694</v>
+        <v>19.45899276076192</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.90183480500153</v>
+        <v>19.91280069835599</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>29.90161765215779</v>
+        <v>19.12795392646403</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>29.90151050330363</v>
+        <v>20.47458141999114</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>29.90155195779582</v>
+        <v>21.19004729731969</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>29.90440333570768</v>
+        <v>21.36011876169713</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>29.90238658320914</v>
+        <v>22.77740369056666</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>29.90243724874576</v>
+        <v>24.90354149144293</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>29.90243776063301</v>
+        <v>25.44654534314635</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>29.90218484604178</v>
+        <v>23.59147508554686</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>29.90239504182718</v>
+        <v>26.97763770623797</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>29.90240444129577</v>
+        <v>27.87638830276578</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>29.90357625594412</v>
+        <v>21.61562102785463</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>29.9038474438545</v>
+        <v>26.17414387876976</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>29.90384628661122</v>
+        <v>27.03831790449927</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>29.90332893019615</v>
+        <v>25.07802802483243</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.90327948588934</v>
+        <v>28.04259359620861</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>29.90328378330251</v>
+        <v>28.60590697751004</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>29.90388354545921</v>
+        <v>24.33504036755972</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>29.90398498296226</v>
+        <v>27.18772668357855</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>29.90397422871608</v>
+        <v>27.73766622271746</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>29.90173833764469</v>
+        <v>30.05265362482136</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>29.90179016663307</v>
+        <v>32.15760589549276</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>29.90178983654365</v>
+        <v>32.64432305242556</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>29.90151872250823</v>
+        <v>30.69516597339555</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>29.90069213392844</v>
+        <v>34.0433326650231</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>29.90075451642968</v>
+        <v>34.8517047711833</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>29.90454681808082</v>
+        <v>19.90676992905473</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>29.90257472792071</v>
+        <v>21.161188989204</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>29.90262046441995</v>
+        <v>23.28631296288522</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>29.90262334370725</v>
+        <v>23.86965910642059</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>29.90241858070647</v>
+        <v>22.03045554337169</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>29.90256161899274</v>
+        <v>25.4102731365407</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>29.90257382543214</v>
+        <v>26.37774431472298</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.90396894087869</v>
+        <v>20.43017952106527</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>29.90398145844972</v>
+        <v>24.97512497424622</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>29.90398265890354</v>
+        <v>25.88884476408995</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>29.90332097321852</v>
+        <v>23.68697912632636</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>29.90340627089506</v>
+        <v>26.67666302215497</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>29.90341451932076</v>
+        <v>27.2811738458246</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>29.90424314690948</v>
+        <v>23.02502877010347</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>29.90416297383652</v>
+        <v>25.89665282882456</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>29.90415257959966</v>
+        <v>26.48538368514367</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>29.90195539603701</v>
+        <v>28.64592758679107</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>29.90199894698981</v>
+        <v>30.75741005202315</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>29.90200223344196</v>
+        <v>31.27685862760103</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>29.90052200900145</v>
+        <v>29.33415553996582</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>29.90053429712395</v>
+        <v>32.68765540717297</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>29.90052759447312</v>
+        <v>33.54950214055219</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>29.90538706722861</v>
+        <v>21.3597578451432</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>29.90382681573027</v>
+        <v>20.99774036864338</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>29.90383968072909</v>
+        <v>22.27375728299945</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>29.90385019607238</v>
+        <v>22.90065713777113</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>29.90376741148537</v>
+        <v>21.46543935549378</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>29.90382671850466</v>
+        <v>23.47386935067768</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>29.90384466366665</v>
+        <v>24.50732285464001</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>29.90502407303919</v>
+        <v>24.04945680675001</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.90502740984582</v>
+        <v>26.51118857318158</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>29.90502712716367</v>
+        <v>27.73697734620663</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>29.90461519298786</v>
+        <v>25.67362128974126</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>29.90464503331154</v>
+        <v>27.52458091779473</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>29.90465699118397</v>
+        <v>28.36384220648889</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>29.90517599016029</v>
+        <v>25.28286648694818</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>29.90513834095984</v>
+        <v>27.07981400560956</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>29.905130732503</v>
+        <v>28.04963531762116</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>29.90345438434035</v>
+        <v>27.96908066430384</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>29.90346921497397</v>
+        <v>29.27596177143094</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>29.90347893858096</v>
+        <v>29.95081147380129</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.90265981118085</v>
+        <v>28.11171363197612</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>29.90266014480094</v>
+        <v>30.17772173784321</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>29.9026602245715</v>
+        <v>31.27489827024966</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>29.9053407385013</v>
+        <v>17.77181147775158</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.90534114522879</v>
+        <v>19.29606929490947</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.90534066080374</v>
+        <v>19.76197735694024</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>29.90500826403639</v>
+        <v>16.06064975109162</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>29.90501285559234</v>
+        <v>16.92515877810698</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.90501402161045</v>
+        <v>17.51425072938186</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>29.90543193048186</v>
+        <v>16.59425217499607</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>29.905422268167</v>
+        <v>17.46914846493139</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>29.90542168948994</v>
+        <v>18.09979353489976</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.90385082554783</v>
+        <v>16.98871060877131</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.90385490752393</v>
+        <v>17.95078693778439</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>29.90385572074734</v>
+        <v>18.27402715996116</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>29.90400389440292</v>
+        <v>17.27327524313199</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.90402542547249</v>
+        <v>18.92128470239076</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>29.90402837582413</v>
+        <v>19.38979682872555</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>29.9036127753944</v>
+        <v>15.53245637556368</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.9036104283354</v>
+        <v>18.40749092106147</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.9036137920446</v>
+        <v>19.48845820839067</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.90308011625174</v>
+        <v>10.81087844723931</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>29.90309879097417</v>
+        <v>12.81142772895581</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.90296039856554</v>
+        <v>13.82289694217683</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.90363608002562</v>
+        <v>11.58744794434239</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.90363553727843</v>
+        <v>13.57319384447677</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.90498986004787</v>
+        <v>16.26716006076102</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.90498694646058</v>
+        <v>20.14837508813263</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>29.9049870557908</v>
+        <v>20.50945392101111</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.90459847909711</v>
+        <v>17.68663184981418</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>29.90460890816632</v>
+        <v>19.58674553921546</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>29.90460970321034</v>
+        <v>19.95021413301944</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>29.90509621892956</v>
+        <v>17.37215740601538</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>29.90507218044269</v>
+        <v>19.29984061107287</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>29.90507136550714</v>
+        <v>19.79833435575075</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>29.90333353475486</v>
+        <v>20.12094985231029</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>29.90334317071637</v>
+        <v>22.14163104198903</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>29.9033430481558</v>
+        <v>22.39325953543331</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>29.90367481207709</v>
+        <v>20.62092137027151</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>29.90372571436378</v>
+        <v>24.06937444042764</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>29.90372323696404</v>
+        <v>24.4578656072288</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.9032284183533</v>
+        <v>17.4580423068948</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>29.9032309018888</v>
+        <v>25.51565149056514</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>29.90323269666344</v>
+        <v>26.95474277326129</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>29.90264137866421</v>
+        <v>22.80983741214089</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>29.90268892449594</v>
+        <v>28.09872746213319</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>29.90200031533533</v>
+        <v>29.08404226518087</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>29.90279579900607</v>
+        <v>21.55368073071941</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>29.90279251185471</v>
+        <v>26.71387031616225</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>29.90514823418285</v>
+        <v>14.24703101777977</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.90514579902531</v>
+        <v>18.11167193660184</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.90514598982805</v>
+        <v>18.50506562979761</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.90477727106293</v>
+        <v>15.79791764023253</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>29.90478693523479</v>
+        <v>17.70423621165136</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.90478802608351</v>
+        <v>18.13140778849037</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>29.90524889683435</v>
+        <v>15.57762248654971</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>29.90522646710634</v>
+        <v>17.50794781743741</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>29.90522564335849</v>
+        <v>18.08374225540972</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>29.90356967919189</v>
+        <v>18.18147900102113</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>29.90357860282016</v>
+        <v>20.20190743726077</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>29.90357862580322</v>
+        <v>20.48219424296693</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>29.9038915786991</v>
+        <v>18.76516075317573</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>29.9039399190786</v>
+        <v>22.21084594279847</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>29.90393779374725</v>
+        <v>22.63768850913927</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.90343990756398</v>
+        <v>14.91856340325048</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.90344160001487</v>
+        <v>22.94359328952233</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.90344394736172</v>
+        <v>24.484884798966</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>29.90288087931664</v>
+        <v>19.87677165957647</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29.90292419340498</v>
+        <v>25.20620260552164</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>29.90228039381773</v>
+        <v>26.2640999619115</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.9030418358168</v>
+        <v>18.77687291981878</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.90304101317112</v>
+        <v>23.96689503105721</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.90601189990655</v>
+        <v>15.69948650626864</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>29.90601094632877</v>
+        <v>18.19739399111885</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.90601073333306</v>
+        <v>18.68539005834041</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>29.90574817250847</v>
+        <v>16.20291163601739</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>29.9057522215586</v>
+        <v>17.68342011459648</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>29.90575344012947</v>
+        <v>18.11494252548919</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>29.90609109155065</v>
+        <v>16.11855223699946</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>29.90608160030624</v>
+        <v>17.66435284993691</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>29.90608086318055</v>
+        <v>18.13054164803861</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>29.90484893973761</v>
+        <v>17.47554604616779</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>29.90485264575814</v>
+        <v>18.84730633551138</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>29.90485304959536</v>
+        <v>19.17610041048691</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>29.90498982679063</v>
+        <v>17.98587823255621</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.90501078149137</v>
+        <v>20.27056542295697</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>29.90501243500745</v>
+        <v>20.79760557116411</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>29.90465633919786</v>
+        <v>17.13502009094414</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>29.90465340089871</v>
+        <v>21.63145157443862</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>29.90465498594812</v>
+        <v>23.65826462296214</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>29.90425068793283</v>
+        <v>19.39250516473278</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>29.90426362942585</v>
+        <v>22.74301935059995</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>29.90405412196323</v>
+        <v>24.00523918282618</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>29.90460123375667</v>
+        <v>18.73725472855336</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>29.90460148801465</v>
+        <v>22.05770843205927</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>29.90378843203407</v>
+        <v>14.65157973010203</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>29.90138210467056</v>
+        <v>13.96840745738716</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.90139247115921</v>
+        <v>15.4686612033993</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.90139555041641</v>
+        <v>16.16174768457016</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>29.90123881091042</v>
+        <v>14.69641219587069</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.90128529768073</v>
+        <v>17.1201560738061</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.90129152662299</v>
+        <v>18.19650796962504</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>29.90311781629566</v>
+        <v>17.82456628155845</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>29.9031144283225</v>
+        <v>20.81445568177804</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>29.9031170483117</v>
+        <v>22.01832508528171</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>29.90252441407913</v>
+        <v>13.39863948321819</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.90254297303299</v>
+        <v>15.47697151006408</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.90254952559172</v>
+        <v>16.56399241130114</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>29.90335006128787</v>
+        <v>14.04731515674123</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.90331851633778</v>
+        <v>16.09434729927404</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.90331653181936</v>
+        <v>17.22999382215276</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>29.90066321825547</v>
+        <v>16.76000920469083</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>29.90067287632683</v>
+        <v>18.26384992160203</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.90067611131624</v>
+        <v>19.03908178089567</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>29.90028691167137</v>
+        <v>17.38026912796901</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>29.90037625992771</v>
+        <v>19.7937446074767</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.90037181888783</v>
+        <v>21.01091515000761</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>29.90341046809375</v>
+        <v>27.70805309919029</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>29.900919802464</v>
+        <v>30.89023733790928</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>29.90094815922303</v>
+        <v>34.71913545127491</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>29.90094656281084</v>
+        <v>35.56251989346106</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>29.90080925838183</v>
+        <v>31.66491186007305</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>29.90096037095076</v>
+        <v>37.77351717411868</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>29.90095514355833</v>
+        <v>39.16855392692427</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>29.90270695823609</v>
+        <v>24.86361146163121</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>29.90262881734211</v>
+        <v>33.10650751855809</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>29.90262936702308</v>
+        <v>34.49779487733744</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>29.90204205410182</v>
+        <v>32.60624666024391</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>29.90218721242104</v>
+        <v>37.90550412204385</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>29.90218586246482</v>
+        <v>38.8098095984355</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>29.90293242407093</v>
+        <v>30.79828689582878</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>29.90282483709037</v>
+        <v>35.91997605115071</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>29.90282229938371</v>
+        <v>36.80533112615753</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>29.90011582423902</v>
+        <v>41.45508884633695</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>29.89932024134185</v>
+        <v>45.23577750247856</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>29.89937777464865</v>
+        <v>46.01253513660751</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>29.8991255854254</v>
+        <v>42.0441304956803</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>29.89915447131917</v>
+        <v>48.06380516772371</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>29.89914807554413</v>
+        <v>49.35341875596151</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>29.90357221585305</v>
+        <v>25.02603044698738</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>29.90123221525958</v>
+        <v>27.91072896969179</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>29.90145774835413</v>
+        <v>31.74709980024457</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>29.90145702029639</v>
+        <v>32.66511971466682</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>29.90118797306221</v>
+        <v>28.78890196785229</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>29.90128192199746</v>
+        <v>34.90006219926943</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>29.90127758665297</v>
+        <v>36.42236233563277</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>29.90293825926369</v>
+        <v>22.72600899530721</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>29.90286660798674</v>
+        <v>30.95247301017945</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>29.90286850869062</v>
+        <v>32.43168580816253</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>29.90230843371213</v>
+        <v>30.11512342879163</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>29.9024477589547</v>
+        <v>35.47565517161397</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>29.90244790396474</v>
+        <v>36.45278600305284</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>29.90316780545225</v>
+        <v>28.44591604205431</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>29.90306871605591</v>
+        <v>33.61858135094743</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>29.90306673356912</v>
+        <v>34.57219645148348</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>29.90045691466254</v>
+        <v>38.9420500489145</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>29.89936310655306</v>
+        <v>42.74542528457271</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>29.89936017724147</v>
+        <v>43.58165658249752</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.89912833267407</v>
+        <v>39.61184536806341</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>29.89913423458659</v>
+        <v>45.65801531163382</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>29.89913140259875</v>
+        <v>47.04517240053568</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>29.90474916396868</v>
+        <v>23.56027250665894</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.90291673206493</v>
+        <v>23.1619700795711</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>29.90303585118742</v>
+        <v>25.51679083660872</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>29.90304012127428</v>
+        <v>26.57557453270794</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>29.90285793835875</v>
+        <v>23.48601336146544</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.90289641761746</v>
+        <v>27.20388731819808</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>29.90290025509286</v>
+        <v>28.9440749758962</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>29.90430806003365</v>
+        <v>26.29544238825473</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.90427383577235</v>
+        <v>30.81399074333532</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.90427597814537</v>
+        <v>32.88858295423906</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>29.90386066907622</v>
+        <v>30.16455461521098</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>29.90388859330195</v>
+        <v>33.52850014995194</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>29.90388854815472</v>
+        <v>34.97145627291584</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>29.90444761025947</v>
+        <v>29.17262309658409</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>29.90439781360543</v>
+        <v>32.46210236917648</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>29.90439488110601</v>
+        <v>34.12999101871638</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>29.90239432347923</v>
+        <v>34.14649882146838</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>29.90176074299466</v>
+        <v>36.55369607229233</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>29.90175928158516</v>
+        <v>37.69857292240025</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>29.90158676255269</v>
+        <v>33.9531028260532</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>29.90158555837483</v>
+        <v>37.7692529133884</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>29.90158489050602</v>
+        <v>39.62566653893852</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/additive/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.341</v>
+        <v>22.818</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.146</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.744</v>
+        <v>20.777</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.27</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.436</v>
+        <v>21.294</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>16.6641830052662</v>
+        <v>-7.215938595677184</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>18.51576163231766</v>
+        <v>20.42464216629611</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>19.09313567503365</v>
+        <v>26.36258728231605</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>14.77060187839768</v>
+        <v>3.23428961388419</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>15.83111089320326</v>
+        <v>13.5855771125344</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>16.55147569682563</v>
+        <v>18.33329971961036</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>15.3892661234456</v>
+        <v>10.67623558399288</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>16.45880709261738</v>
+        <v>18.47643971005067</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>17.23006196908781</v>
+        <v>21.75421048760478</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>15.82549279751385</v>
+        <v>22.577428333049</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>16.99112686985689</v>
+        <v>28.7619849177458</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>17.39390092371091</v>
+        <v>31.14123111895555</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>16.06182568786398</v>
+        <v>12.59505767446894</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>18.05541420955323</v>
+        <v>27.88503996201127</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>18.64291586056259</v>
+        <v>32.68751751888891</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>15.74692192408905</v>
+        <v>-2.117385452899779</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>19.23719846660353</v>
+        <v>25.52586819785853</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>20.54573394611455</v>
+        <v>31.46451342459119</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>10.64385556259948</v>
+        <v>8.333000698015841</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>13.06944177856029</v>
+        <v>18.68624068647688</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>14.29319944918348</v>
+        <v>23.43440125358081</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>11.44199931936434</v>
+        <v>15.77633728039683</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>13.84724829899458</v>
+        <v>23.57794409283605</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>17.9238492530875</v>
+        <v>-2.662667918575092</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>22.67608069073553</v>
+        <v>24.97812609885017</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>23.08695674686676</v>
+        <v>30.91606724682157</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>20.38560327780935</v>
+        <v>7.78793586503679</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>22.73891278088441</v>
+        <v>18.13933990240122</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>23.17508964453026</v>
+        <v>22.887052564042</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>19.84216485453728</v>
+        <v>15.22998492680626</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>22.23914956222581</v>
+        <v>23.03028508647293</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>22.82577014423016</v>
+        <v>26.30804695607157</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>23.21810497598885</v>
+        <v>27.13133579636764</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>25.69842706223556</v>
+        <v>33.31594517378193</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>26.00172479030538</v>
+        <v>35.69519060510055</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>23.5065936955575</v>
+        <v>17.14884866926178</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>27.73319759583006</v>
+        <v>32.43898202297197</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>28.20189862785019</v>
+        <v>37.24145359316464</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>19.79504511334519</v>
+        <v>2.436401481238537</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>29.5013140051946</v>
+        <v>30.07986840371786</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>31.12008189132645</v>
+        <v>36.01850966377259</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>26.94699170109231</v>
+        <v>12.88716323738089</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>33.30526457901296</v>
+        <v>23.24051977668984</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>34.42424677146455</v>
+        <v>27.98867039900148</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>25.21922143268379</v>
+        <v>20.33060292518013</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>31.4232291384198</v>
+        <v>28.13230577982717</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>15.38386871459023</v>
+        <v>0.0005817292575933664</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>20.12363962625295</v>
+        <v>27.64137634918376</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>20.56858026163113</v>
+        <v>33.57930353001296</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>18.00874689754573</v>
+        <v>10.45135535221806</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>20.37367413910071</v>
+        <v>20.80278386444951</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>20.88373615738242</v>
+        <v>25.5504811446221</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>17.57506965081655</v>
+        <v>17.89342287607366</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>19.98020126070806</v>
+        <v>25.69374561225283</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>20.65477387383542</v>
+        <v>28.97149786005849</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>20.79248818964346</v>
+        <v>29.7947900827798</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>23.27447031666531</v>
+        <v>35.97940344831505</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>23.61057021900297</v>
+        <v>38.35864372008967</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>21.19253579317112</v>
+        <v>19.81227542463438</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>25.41861902848164</v>
+        <v>35.10243076628836</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>25.93097107406059</v>
+        <v>39.90489090869738</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>16.92440729574269</v>
+        <v>5.099915111614965</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>26.59624306614644</v>
+        <v>32.7433826349066</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>28.33566529152667</v>
+        <v>38.68200992647434</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>23.63969180559523</v>
+        <v>15.55084672339735</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>30.0538048439997</v>
+        <v>25.90422773657139</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>31.25551785282167</v>
+        <v>30.65236297629992</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>22.09183206205643</v>
+        <v>22.99430487408171</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>28.3391552951382</v>
+        <v>30.79603030509333</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>14.61276029833055</v>
+        <v>-5.122295697450053</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>17.6500455871328</v>
+        <v>22.51842180096361</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>18.23455641376578</v>
+        <v>28.45638587492505</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>15.62792827881142</v>
+        <v>5.328151670160938</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>17.43541722879203</v>
+        <v>15.6795239757177</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>17.96082857942998</v>
+        <v>20.42725732951232</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>15.46971126786825</v>
+        <v>12.77013922691339</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>17.35706747942078</v>
+        <v>20.57041080591552</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>17.92309606781395</v>
+        <v>23.84819122570702</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>17.11274356770063</v>
+        <v>24.67142174227508</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>18.77538072427653</v>
+        <v>30.85601370039348</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>19.17526902833452</v>
+        <v>33.23526890973068</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>17.59641064214296</v>
+        <v>14.68897799902203</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>20.36218116911466</v>
+        <v>29.97906054023651</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>21.00282237432481</v>
+        <v>34.78155581410209</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>17.66801988665572</v>
+        <v>-0.02347643347132689</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>23.12735798360972</v>
+        <v>27.6199139639644</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>25.44955106258238</v>
+        <v>33.55857815085659</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>20.94114218026212</v>
+        <v>10.42712889207343</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>24.99389092862649</v>
+        <v>20.78045369631372</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>26.46101018282897</v>
+        <v>25.52862501075282</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>19.99583862632204</v>
+        <v>17.8705070681753</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>24.02363741084185</v>
+        <v>25.67218133976184</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>15.1470887206641</v>
+        <v>26.85605864638461</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>14.38211442696482</v>
+        <v>27.67974596402195</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>16.21019262210836</v>
+        <v>33.86517828105247</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>17.05153113790483</v>
+        <v>36.24471813414965</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>15.04331081525984</v>
+        <v>17.69659425179504</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>17.99912021122106</v>
+        <v>32.98848398847446</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>19.30708395941991</v>
+        <v>37.79168658027305</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>18.1865532933069</v>
+        <v>6.953416661927751</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>21.79155685686342</v>
+        <v>34.5964516224762</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>23.24716758870743</v>
+        <v>40.53509779548909</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>13.33917721202305</v>
+        <v>17.40425013104158</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>15.84881481128226</v>
+        <v>27.75771409927399</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>17.17804213529627</v>
+        <v>32.50591223348096</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>14.01374092009891</v>
+        <v>24.84786926933436</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>16.48637436075203</v>
+        <v>32.64965358866442</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>17.86694086612484</v>
+        <v>35.92777675801989</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>17.31058254255304</v>
+        <v>36.75185227890921</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>19.13423947312375</v>
+        <v>42.93733779613586</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>20.07933304037607</v>
+        <v>45.31689288739204</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>17.85810846919857</v>
+        <v>26.76868167829383</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>20.78655130596616</v>
+        <v>42.06072286014245</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>22.26959344131776</v>
+        <v>46.86397611093668</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>32.55731145862678</v>
+        <v>31.41041142598255</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>36.61089042326243</v>
+        <v>32.2341697406992</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>41.22096815741186</v>
+        <v>38.41965485423651</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>42.17812302674928</v>
+        <v>40.79919393829408</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>37.26074851984364</v>
+        <v>22.25090155119284</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>44.61776814928123</v>
+        <v>37.54294236627021</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>46.20000432966374</v>
+        <v>42.34613897393825</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>27.92391953931709</v>
+        <v>11.50729483727008</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>37.83048465069894</v>
+        <v>39.15054306705923</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>39.39477661399371</v>
+        <v>45.08918527203872</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>37.83483118637631</v>
+        <v>21.95850391311109</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>44.19572713921615</v>
+        <v>32.3120844319979</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>45.22208337946082</v>
+        <v>37.06027262103822</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>35.47150385894607</v>
+        <v>29.40222615781562</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>41.62014331418072</v>
+        <v>37.20410651884794</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>42.63132949193053</v>
+        <v>40.48222078067471</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>48.4173608146455</v>
+        <v>41.30636729760982</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>52.96020539542725</v>
+        <v>47.4919056110661</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>53.8414618333239</v>
+        <v>49.87145993270627</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>48.89229253928819</v>
+        <v>31.32308021991111</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>56.12663014708008</v>
+        <v>46.61527247985413</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>57.58873572652185</v>
+        <v>51.41851974551179</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>29.54874429749448</v>
+        <v>34.07412632908319</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>33.2409205044149</v>
+        <v>34.89788802225922</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>37.86752556718834</v>
+        <v>41.08337712322788</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>38.9089292725515</v>
+        <v>43.46291104721314</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>34.00093194082609</v>
+        <v>24.9145922999374</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>41.37365062219762</v>
+        <v>40.2066551030502</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>43.09939379168592</v>
+        <v>45.0098402816389</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>25.52096642162045</v>
+        <v>14.17082509245967</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>35.41419018198403</v>
+        <v>41.81407392269642</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>37.08031749770088</v>
+        <v>47.75270215845507</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>35.05110261987564</v>
+        <v>24.62220402264842</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>41.49343616967016</v>
+        <v>34.97580901473526</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>42.6015224276039</v>
+        <v>39.72398182047692</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>32.84474800010265</v>
+        <v>32.06594473014178</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>39.06304560164574</v>
+        <v>39.86784766686168</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>40.15172305102755</v>
+        <v>43.14595230602919</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>45.60236094262935</v>
+        <v>43.97010219984901</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>50.18028277854596</v>
+        <v>50.15564450028666</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>51.12781418009703</v>
+        <v>52.53519366142183</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>46.16159496044461</v>
+        <v>33.98678758902878</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>53.44076825613948</v>
+        <v>49.27900183624348</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>55.01147828369816</v>
+        <v>54.08223767205931</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>25.76559883543359</v>
+        <v>28.95030553649048</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>25.48304747824186</v>
+        <v>29.77400552390799</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>28.32878236308708</v>
+        <v>35.95947321691978</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>29.56588812188182</v>
+        <v>38.33902207932027</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>25.69990200641078</v>
+        <v>19.79078072173531</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>30.19211193586322</v>
+        <v>35.08277072080608</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>32.22621115436157</v>
+        <v>39.88599103200983</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>28.19330069277514</v>
+        <v>9.047413863637363</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>33.67638126644577</v>
+        <v>36.69058556930923</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>36.04724923954542</v>
+        <v>42.62925070145894</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>33.41679346234238</v>
+        <v>19.49846650784338</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>37.48418399237219</v>
+        <v>29.85201529206103</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>39.15051512762211</v>
+        <v>34.60022417297097</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>32.06580937999848</v>
+        <v>26.94212724203482</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>36.05601317209511</v>
+        <v>34.74397902046195</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>37.98255796607289</v>
+        <v>38.02211183278092</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>38.21202630965626</v>
+        <v>38.84620002321373</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>41.11927266637143</v>
+        <v>45.03172091617211</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>42.4532476962555</v>
+        <v>47.41128501612201</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>37.84058617311481</v>
+        <v>28.86295633158688</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>42.44837871434669</v>
+        <v>44.15509777593769</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>44.61381920991665</v>
+        <v>48.95836874511139</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>17.4221313090918</v>
+        <v>-7.697979459336178</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>19.02171438814081</v>
+        <v>19.94205253541435</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>19.48142174080197</v>
+        <v>25.88005022913962</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>15.83921503669796</v>
+        <v>2.752028618437127</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>16.76461848388093</v>
+        <v>13.10300972385432</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>17.33510601626921</v>
+        <v>17.85077843110156</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>16.39093595740555</v>
+        <v>10.19388458784221</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>17.33718843026012</v>
+        <v>17.99384853965472</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>17.96124120627365</v>
+        <v>21.27166943605159</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>16.53560820430965</v>
+        <v>22.09491917776512</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>17.56380131541128</v>
+        <v>28.2793247217432</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>17.89477937854335</v>
+        <v>30.65859771031939</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>16.74885866581126</v>
+        <v>12.11279634148599</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>18.50804026195554</v>
+        <v>27.40238234360374</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>18.99578454805529</v>
+        <v>32.20492323530783</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>17.32987902518677</v>
+        <v>-2.600147897182463</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>20.31619950746907</v>
+        <v>25.0425569420849</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>21.40664828304255</v>
+        <v>30.98125475651154</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>13.46594545275957</v>
+        <v>7.85001807767998</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>15.56442032126376</v>
+        <v>18.20295164835824</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>16.55454558836188</v>
+        <v>22.95115832759695</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>14.07099492876339</v>
+        <v>15.29326462787725</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>16.11331393674596</v>
+        <v>23.09463124720702</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>16.11278420304105</v>
+        <v>-3.144709725055744</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>19.94467397851007</v>
+        <v>24.49553552132688</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>20.23733725818158</v>
+        <v>30.43352924837831</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>17.01660736805811</v>
+        <v>7.305673924212162</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>18.86780256629548</v>
+        <v>17.65677156601231</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>19.29823087491829</v>
+        <v>22.40453032932061</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>16.93444146077646</v>
+        <v>14.74763298580291</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>18.84900404827631</v>
+        <v>22.54769296936314</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>19.39766879928768</v>
+        <v>25.82550495877701</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>18.95763246129528</v>
+        <v>26.64882569466574</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>20.96962224492989</v>
+        <v>32.83328403004163</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>21.26885071952204</v>
+        <v>35.21255624936981</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>19.30330964832103</v>
+        <v>16.66658639065014</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>22.74552049214284</v>
+        <v>31.95632345597341</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>23.20621065465012</v>
+        <v>36.75885836275035</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>15.83429426169618</v>
+        <v>1.953638091081022</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>23.88932092608098</v>
+        <v>29.59655619789459</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>25.16521482715426</v>
+        <v>35.53525004730267</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>20.29192204233186</v>
+        <v>12.40417966799697</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>25.37989348137586</v>
+        <v>22.75722978749281</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>26.29110017946935</v>
+        <v>27.50542652340602</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>19.17010937339126</v>
+        <v>19.84752932397527</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>24.16808895015608</v>
+        <v>27.64899198361406</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>14.381416447912</v>
+        <v>-0.4814672180864896</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>18.21951276871779</v>
+        <v>27.15877863130715</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>18.53737108079355</v>
+        <v>33.09675839181403</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>15.46294403029062</v>
+        <v>9.969086270066615</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>17.33527312133467</v>
+        <v>20.32020838692933</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>17.82223313285355</v>
+        <v>25.06795176903751</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>15.45904730185108</v>
+        <v>17.41106379382763</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>17.39477895752423</v>
+        <v>25.21114635398311</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>18.01387724038198</v>
+        <v>28.48894872195416</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>17.36048539887562</v>
+        <v>29.31227283984396</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>19.3778800210204</v>
+        <v>35.49673516356694</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>19.70037130395988</v>
+        <v>37.87600222351244</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>17.7730325673359</v>
+        <v>19.33000600497491</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>21.21959495613853</v>
+        <v>34.6197650584341</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>21.7102965701697</v>
+        <v>39.42228853769944</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>14.14600539009616</v>
+        <v>4.61714458128478</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>22.22097120219945</v>
+        <v>32.26006328958607</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>23.55992180377095</v>
+        <v>38.19874317121531</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>18.37101277763977</v>
+        <v>15.067856013621</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>23.53589542581678</v>
+        <v>25.42093060725387</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>24.49607574079055</v>
+        <v>30.16911196092184</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>17.36758534816608</v>
+        <v>22.51122413256332</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>22.44063622505318</v>
+        <v>30.31270936857874</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>14.2875616458992</v>
+        <v>-5.6043362655119</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>16.81366613529536</v>
+        <v>22.03583246367458</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>17.33785920929725</v>
+        <v>27.97384911607816</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>14.36232353727892</v>
+        <v>4.845890968902101</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>15.86908567998124</v>
+        <v>15.19695688007886</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>16.39356135982157</v>
+        <v>19.94473633480863</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>14.43808559540999</v>
+        <v>12.28778852513591</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>16.02209455050275</v>
+        <v>20.08781992911947</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>16.57138910901783</v>
+        <v>23.36565046819652</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>15.4887966272792</v>
+        <v>24.18891288026538</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>16.8574079219695</v>
+        <v>30.37335379663643</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>17.25565055243715</v>
+        <v>32.75263579372978</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>16.01438889213274</v>
+        <v>14.20671695995151</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>18.28592915120757</v>
+        <v>29.49640321429519</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>18.9228937442148</v>
+        <v>34.29896182354418</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>18.28009795901859</v>
+        <v>-0.506238583783496</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>22.91189410266941</v>
+        <v>27.1366029998481</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>24.66590939051147</v>
+        <v>33.07531977538309</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>20.42186582578216</v>
+        <v>9.944146563270071</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>23.79916343652172</v>
+        <v>20.29716494871088</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>24.91875582753069</v>
+        <v>25.04538237603885</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>19.82019058072846</v>
+        <v>17.38743470725212</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>23.18971740156793</v>
+        <v>25.18886878498455</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>17.19385134161498</v>
+        <v>26.37279593049124</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>16.64377705492895</v>
+        <v>27.19651512070113</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>18.28563824735627</v>
+        <v>33.38179638409378</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>18.94392303511105</v>
+        <v>35.76136303021559</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>17.21978001906077</v>
+        <v>17.21361124428103</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>19.89168186531464</v>
+        <v>32.50510466380609</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>20.90619388556253</v>
+        <v>37.3083706045357</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>20.41488220465629</v>
+        <v>6.470501271969116</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>23.50849195384862</v>
+        <v>34.11298742514356</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>24.75877693612436</v>
+        <v>40.05168618388331</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>16.80496135563863</v>
+        <v>16.92111456814218</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>18.96418649915738</v>
+        <v>27.27427212103879</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>20.0657825865006</v>
+        <v>32.02251636342743</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>17.29341282168699</v>
+        <v>24.36464366308843</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>19.38489807379936</v>
+        <v>32.1661877898693</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>20.55744577292114</v>
+        <v>35.44436108777887</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>20.14277829366758</v>
+        <v>36.26846847558062</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>21.76916143519183</v>
+        <v>42.45380293993691</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>22.53562125454701</v>
+        <v>44.83338482141863</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>20.54836783129772</v>
+        <v>26.2855457081227</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>23.1776727274632</v>
+        <v>41.57719057575349</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>24.37415198660415</v>
+        <v>46.38050717087316</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>25.06447841036439</v>
+        <v>30.92714776067504</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>27.98919481814243</v>
+        <v>31.75093794716821</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>31.73634380524977</v>
+        <v>37.93627200627765</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>32.51062478179401</v>
+        <v>40.31583788392692</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>28.83091305465454</v>
+        <v>21.76791759453585</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>34.83508072481321</v>
+        <v>37.05956208960794</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>36.1144323255348</v>
+        <v>41.86282204803689</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>23.40284772920499</v>
+        <v>11.02437849996926</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>31.63090541840565</v>
+        <v>38.66707791868811</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>32.85958729466113</v>
+        <v>44.60577271086919</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>30.32504372109838</v>
+        <v>21.47536740030359</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>35.41301539703846</v>
+        <v>31.82864150184622</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>36.26618062481065</v>
+        <v>36.57687580024191</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>28.68449115853</v>
+        <v>28.91899960238806</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>33.63893628374412</v>
+        <v>36.72063976867531</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>34.43732413243402</v>
+        <v>39.99880416002856</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>38.73099505063129</v>
+        <v>40.82298254314782</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>42.42819775146702</v>
+        <v>47.00836980306627</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>43.14722684251866</v>
+        <v>49.38795091533979</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>39.35190242158883</v>
+        <v>30.8399432996045</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>45.26604802851857</v>
+        <v>46.13173924220285</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>46.45662870779087</v>
+        <v>50.935049854027</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>23.37405325805809</v>
+        <v>33.59085552363132</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>26.01202427043414</v>
+        <v>34.41464908857319</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>29.79385680235316</v>
+        <v>40.59998713498049</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>30.61596959004815</v>
+        <v>42.97954785278665</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>26.89651719403169</v>
+        <v>24.43160120301144</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>32.94609330454504</v>
+        <v>39.72326768619001</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>34.30681193973827</v>
+        <v>44.52651621576575</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>22.02865074908649</v>
+        <v>13.68790161496981</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>30.2935096358526</v>
+        <v>41.33060163463978</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>31.56436833532902</v>
+        <v>47.26928245818607</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>28.73112655002823</v>
+        <v>24.13906036921043</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>33.91501522586247</v>
+        <v>34.49235894369775</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>34.81730181415048</v>
+        <v>39.24057785948713</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>27.19704601451538</v>
+        <v>31.58271103435476</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>32.24687251142933</v>
+        <v>39.3843737760389</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>33.08188261806272</v>
+        <v>42.66252854537271</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>37.09584593873376</v>
+        <v>43.48671030497968</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>40.84511246268466</v>
+        <v>49.67210155175422</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>41.596181532683</v>
+        <v>52.05167750381912</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>37.73923073772031</v>
+        <v>33.50364352825972</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>43.72734224864163</v>
+        <v>48.79546145815385</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>44.96849516827005</v>
+        <v>53.59876064040731</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>24.53332789753964</v>
+        <v>28.46704311194657</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>23.91997528177277</v>
+        <v>29.29077497118425</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>26.32527456906329</v>
+        <v>35.47609161023428</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>27.27497976647549</v>
+        <v>37.85566726572807</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>24.11097618785542</v>
+        <v>19.30779800586817</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>27.92043843076826</v>
+        <v>34.59939168622822</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>29.4814340058166</v>
+        <v>39.40267534691401</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>27.76231327388788</v>
+        <v>8.564498766426315</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>32.4273696639173</v>
+        <v>36.20712166260404</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>34.27526332307974</v>
+        <v>42.14583938156346</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>31.78015799108021</v>
+        <v>19.0153312361453</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>35.21032711502001</v>
+        <v>29.36857360365417</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>36.5186461148224</v>
+        <v>34.11682859355591</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>30.77507064008997</v>
+        <v>26.45890192691644</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>34.155703824459</v>
+        <v>34.2605135115935</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>35.67714531056981</v>
+        <v>37.53869645286096</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>35.52294968768069</v>
+        <v>38.36281650973962</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>38.00833336463361</v>
+        <v>44.54818634945315</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>39.05868125352389</v>
+        <v>46.92777723983926</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>35.17553198133587</v>
+        <v>28.37982065232774</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>39.12509627551923</v>
+        <v>43.67156578077805</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>40.82988248634315</v>
+        <v>48.47490009487564</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>18.8525104421847</v>
+        <v>-9.422001981049842</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>20.33225707032034</v>
+        <v>18.21758418118674</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>20.74646199609392</v>
+        <v>24.15541086801244</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>17.43548811817509</v>
+        <v>1.027635792257289</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>18.30366608463333</v>
+        <v>11.37852841969317</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>18.81324910594645</v>
+        <v>16.12613316621759</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>17.92187966603806</v>
+        <v>8.469344273148582</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>18.81600103236371</v>
+        <v>16.2692320662157</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>19.37128200000787</v>
+        <v>19.54693667004011</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>18.05435313499621</v>
+        <v>20.37015064044221</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>19.00648916407665</v>
+        <v>26.55446311260727</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>19.30493015538477</v>
+        <v>28.93366058878036</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>18.22500171124491</v>
+        <v>10.38820124846103</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>19.85076181516545</v>
+        <v>25.67754698134928</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>20.29199595558752</v>
+        <v>30.47993149592782</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>18.11598406549392</v>
+        <v>-4.324199143698987</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>20.86249430768561</v>
+        <v>23.31805982251382</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>21.8716733784557</v>
+        <v>29.25658661568326</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>14.63234850358652</v>
+        <v>6.125596550816855</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>16.57632164335474</v>
+        <v>16.47844160388781</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>17.4774627320792</v>
+        <v>21.22648431379304</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>15.19405232740774</v>
+        <v>13.56869558593059</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>17.07818151404262</v>
+        <v>21.36998601919078</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>18.27677793010128</v>
+        <v>-4.868855707570614</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>21.84568705737619</v>
+        <v>22.77094370395656</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>22.10906049729318</v>
+        <v>28.70876642315597</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>19.32815073243928</v>
+        <v>5.5811576288441</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>21.07260007595173</v>
+        <v>15.93216679165579</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>21.48753958241648</v>
+        <v>20.67976159360598</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>19.19809996112816</v>
+        <v>13.02296919883003</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>21.02020799269263</v>
+        <v>20.82295302302618</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>21.53700588530372</v>
+        <v>24.10064871946469</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>21.07963752654188</v>
+        <v>24.9239336818643</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>22.94325900298458</v>
+        <v>31.1082989452612</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>23.22367987666014</v>
+        <v>33.48749565165662</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>21.31608366034192</v>
+        <v>14.94186782519086</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>24.49602907506091</v>
+        <v>30.23136461945836</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>24.92495310230491</v>
+        <v>35.03374314843762</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>16.56265823956927</v>
+        <v>0.2294633738216056</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>23.90791912002099</v>
+        <v>27.87193560553709</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>25.08303842999281</v>
+        <v>33.81045843276189</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>20.67774390373135</v>
+        <v>10.67963466181738</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>25.31885858538053</v>
+        <v>21.03259626211781</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>26.16937152874117</v>
+        <v>25.7806290280052</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>19.6746763434403</v>
+        <v>18.12283679952367</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>24.23418455616288</v>
+        <v>25.92422327226103</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>16.77287395946999</v>
+        <v>-2.205674069246751</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>20.34734268071286</v>
+        <v>25.43412594526893</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>20.63670590028462</v>
+        <v>31.37193469798882</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>18.01039724951762</v>
+        <v>8.244509102113913</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>19.76775769090569</v>
+        <v>18.59554273926864</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>20.237518143505</v>
+        <v>23.34312216050597</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>17.94418903619059</v>
+        <v>15.68633913413368</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>19.78004743241526</v>
+        <v>23.48634553418828</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>20.36472844504532</v>
+        <v>26.76403160945444</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>19.72517187536891</v>
+        <v>27.58731995388286</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>21.58948762217985</v>
+        <v>33.77168920508694</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>21.89317114779418</v>
+        <v>36.15088075228601</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>20.02128128123235</v>
+        <v>17.60522656668462</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>23.19879048490214</v>
+        <v>32.89474534852008</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>23.65822663810406</v>
+        <v>37.6971124503695</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>15.11797775171552</v>
+        <v>2.892908989516346</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>22.48284946593069</v>
+        <v>30.535381822626</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>23.70917590701699</v>
+        <v>36.47389068213039</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>19.03387073642491</v>
+        <v>13.34325012922654</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>23.74345352945491</v>
+        <v>23.69623620298166</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>24.63367070374976</v>
+        <v>28.44425358723351</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>18.13887148029452</v>
+        <v>20.78647072947803</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>22.76603761899025</v>
+        <v>28.58787977804667</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>16.37530945799056</v>
+        <v>-7.328416703191973</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>18.72185433793764</v>
+        <v>20.3113061914732</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>19.19529800459754</v>
+        <v>26.24915183613877</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>16.55608949533743</v>
+        <v>3.121440221892787</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>17.96239668809462</v>
+        <v>13.47241765362941</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>18.44445357106495</v>
+        <v>18.22003314695991</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>16.58785987400214</v>
+        <v>10.56319028827551</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>18.06895331333641</v>
+        <v>18.36314553230438</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>18.57356427083351</v>
+        <v>21.64085977829979</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>17.61201821133953</v>
+        <v>22.46408641899922</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>18.8700018664851</v>
+        <v>28.64843426314775</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>19.2364216337572</v>
+        <v>31.02764074727014</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>18.05050274716655</v>
+        <v>12.48206394487937</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>20.1329837527366</v>
+        <v>27.7715099277836</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>20.71887302336592</v>
+        <v>32.57391215952822</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>18.63796305374643</v>
+        <v>-2.230347752246356</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>22.85230028299651</v>
+        <v>25.41204795643313</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>24.4223052055783</v>
+        <v>31.35059371001802</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>20.56110374240311</v>
+        <v>8.219667110302741</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>23.62861812233583</v>
+        <v>18.57259697632248</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>24.63470805355825</v>
+        <v>23.32065043374059</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>20.04416647708794</v>
+        <v>15.66280773754756</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>23.10793365905538</v>
+        <v>23.46416562786186</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>18.05888585594322</v>
+        <v>24.64803440311136</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>17.50195493891044</v>
+        <v>25.4717178223188</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>19.03380048484327</v>
+        <v>31.65690599827628</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>19.62605010875603</v>
+        <v>34.03639712481112</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>18.02362960647014</v>
+        <v>15.48898740232238</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>20.51873005369636</v>
+        <v>30.78024052282587</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>21.42929375214845</v>
+        <v>35.58335007023885</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>21.20709137310633</v>
+        <v>4.746456438633633</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>24.05937557944825</v>
+        <v>32.38849672943462</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>25.22297003685415</v>
+        <v>38.32702446793343</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>17.97618013474484</v>
+        <v>15.19669944435299</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>19.98118016330048</v>
+        <v>25.54976847553741</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>20.99201751479291</v>
+        <v>30.29784874863828</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>18.43146484426867</v>
+        <v>22.64008102751922</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>20.36667103424958</v>
+        <v>30.44154896687423</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>21.43977886509855</v>
+        <v>33.71960596589309</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>20.98023282283716</v>
+        <v>34.54367756711321</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>22.49726277283782</v>
+        <v>40.72891894493733</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>23.19896894819169</v>
+        <v>43.10842530805741</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>21.32165921622455</v>
+        <v>24.56092824901561</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>23.77528256510182</v>
+        <v>39.85233282322082</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>24.8704704294038</v>
+        <v>44.65549302496453</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>25.06683412717983</v>
+        <v>29.20226274978581</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>27.62596375410843</v>
+        <v>30.0260171633974</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>31.05413468322125</v>
+        <v>36.21125813450402</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>31.77362060244867</v>
+        <v>38.59074849226869</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>28.39716638370255</v>
+        <v>20.04317026941516</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>33.89324283633314</v>
+        <v>35.33457446374285</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>35.08043052842382</v>
+        <v>40.13767802801277</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>23.72143411525344</v>
+        <v>9.300210197095627</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>31.21928491011329</v>
+        <v>36.94246375067081</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>32.33127874491423</v>
+        <v>42.88098752173875</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>30.05287822666789</v>
+        <v>19.75082879842472</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>34.69510249906203</v>
+        <v>30.10401437642935</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>35.47820398207983</v>
+        <v>34.8520847052967</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>28.57890938070412</v>
+        <v>27.19431348531652</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>33.09905008649343</v>
+        <v>34.9958774634909</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>33.82996145582476</v>
+        <v>38.27392555570526</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>37.63409749397744</v>
+        <v>39.09806814981829</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>41.02167313002938</v>
+        <v>45.28336232272312</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>41.67649107171334</v>
+        <v>47.66286791636486</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>38.18569465700849</v>
+        <v>29.11520235813459</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>43.60874455231811</v>
+        <v>44.40675800545642</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>44.69093869949362</v>
+        <v>49.20991222308959</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>23.62855412577623</v>
+        <v>31.86590963365194</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>25.91779646266844</v>
+        <v>32.68966742544211</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>29.37819376267311</v>
+        <v>38.87491238366289</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>30.13606193475568</v>
+        <v>41.25439758176668</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>26.71957548268957</v>
+        <v>22.7067929993853</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>32.25858616171352</v>
+        <v>37.99821918136234</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>33.51109753779264</v>
+        <v>42.80131131728268</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>22.52640352440846</v>
+        <v>11.96367243760398</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>30.05893839803734</v>
+        <v>39.60592659228604</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>31.20419564286683</v>
+        <v>45.54443639490472</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>28.66808211720949</v>
+        <v>22.41446088903576</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>33.395130051084</v>
+        <v>32.7676709397993</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>34.21917364455294</v>
+        <v>37.51572588619257</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>27.29167840265926</v>
+        <v>29.85796403857814</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>31.89691608912652</v>
+        <v>37.65955059168942</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>32.6579273966778</v>
+        <v>40.93758906186662</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>36.20054522424218</v>
+        <v>41.76173503275362</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>39.63564790723007</v>
+        <v>47.9470331922692</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>40.31520491970991</v>
+        <v>50.32653362578554</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>36.76720438423039</v>
+        <v>31.77884170864928</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>42.2584507230965</v>
+        <v>47.07041934291993</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>43.37907756350145</v>
+        <v>51.87356213134257</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>24.31216310772711</v>
+        <v>26.74222365508155</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>23.72326729038601</v>
+        <v>27.56591974371071</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>25.9044943183492</v>
+        <v>33.75114329437503</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>26.76605784892542</v>
+        <v>36.13064343011666</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>23.93740957135234</v>
+        <v>17.58311623600668</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>27.39108989644603</v>
+        <v>32.87446961548613</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>28.80888201864888</v>
+        <v>37.67759688245116</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>27.22693994216713</v>
+        <v>6.840396010632109</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>31.46218486065652</v>
+        <v>34.48257304212717</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>33.12517799299275</v>
+        <v>40.42111974005394</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>30.8505212151002</v>
+        <v>17.29085818526079</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>33.96637502726657</v>
+        <v>27.64401202943106</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>35.14579268222192</v>
+        <v>32.39210304966565</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>29.96205636389192</v>
+        <v>24.73428136281058</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>33.03423763565435</v>
+        <v>32.53581675891127</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>34.40388565849931</v>
+        <v>35.81388340093332</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>34.25163233123202</v>
+        <v>36.63796767084494</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>36.50557241727371</v>
+        <v>42.82324442324335</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>37.45915697979567</v>
+        <v>45.20275979498882</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>33.98397323540937</v>
+        <v>26.65514526453814</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>37.56437298223635</v>
+        <v>41.94665009750491</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>39.11369768963352</v>
+        <v>46.74982801776372</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>22.14976508717005</v>
+        <v>-4.736914125636471</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>23.00338093768037</v>
+        <v>22.90396106697978</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>23.26263392674355</v>
+        <v>28.84207415568773</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>20.95766109905404</v>
+        <v>5.713507224017864</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>21.46321917624131</v>
+        <v>16.06488093865829</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>21.77569273460925</v>
+        <v>20.81272760862368</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>21.27473550832035</v>
+        <v>13.15560706899845</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>21.79327021856481</v>
+        <v>20.95586090176477</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>22.12645180917942</v>
+        <v>24.23372913969087</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>21.57120172876407</v>
+        <v>25.05695915301186</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>22.10642904390035</v>
+        <v>31.24157703356952</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>22.28143914779149</v>
+        <v>33.62089175862349</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>21.82278601527107</v>
+        <v>15.07446324535676</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>22.7329003163377</v>
+        <v>30.3645827644545</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>22.98858384270591</v>
+        <v>35.16720071922015</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>17.95259669444242</v>
+        <v>0.3619328768828076</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>19.54158422047993</v>
+        <v>28.00548098986843</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>20.16907599039746</v>
+        <v>33.94429421155365</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>14.58980702308874</v>
+        <v>10.81251217946619</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>15.71850449102634</v>
+        <v>21.1658384063806</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>16.29293941516037</v>
+        <v>25.91412305435921</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>15.2292586292166</v>
+        <v>18.25600265340046</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>16.34764768995436</v>
+        <v>26.05765918926585</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>20.48304832801907</v>
+        <v>-0.1835291491930171</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>22.72300920693064</v>
+        <v>27.457559301505</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>22.93235375627343</v>
+        <v>33.39566842261974</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>21.1343009400006</v>
+        <v>10.26726778107406</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>22.25204660880114</v>
+        <v>20.61875803582467</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>22.48836713453688</v>
+        <v>25.36659476083668</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>20.914946041011</v>
+        <v>17.70947072048847</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>22.0575368976158</v>
+        <v>25.50982058820609</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>22.36917061679407</v>
+        <v>28.78767991863169</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>22.72662433073584</v>
+        <v>29.61098092676361</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>23.87690694370939</v>
+        <v>35.79565160090493</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>24.03126704972223</v>
+        <v>38.17496555608255</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>23.17099004192606</v>
+        <v>19.62836854834581</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>25.12453143565114</v>
+        <v>34.91863913567983</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>25.35964470570126</v>
+        <v>39.72125110455619</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>16.24060447186123</v>
+        <v>4.915834121047912</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>20.68815424789344</v>
+        <v>32.55959550843096</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>21.60378842043388</v>
+        <v>38.49840476429682</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>18.24533948840548</v>
+        <v>15.36678903524757</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>21.20549556962727</v>
+        <v>25.7202318143165</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>21.8348096178137</v>
+        <v>30.46850651806136</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>17.84899455012541</v>
+        <v>22.81038261724592</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>20.72905169747855</v>
+        <v>30.61213519666711</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>19.48952147048673</v>
+        <v>2.479770890976116</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>21.7132779743982</v>
+        <v>30.12085994451212</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>21.94275707374621</v>
+        <v>36.05895509854753</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>20.22974354803034</v>
+        <v>12.93073766319919</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>21.33831383136073</v>
+        <v>23.28225239365992</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>21.61444307155819</v>
+        <v>28.03007373704571</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>20.05576334436151</v>
+        <v>20.37295906564345</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>21.18607063604999</v>
+        <v>28.17333151040254</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>21.54581901725714</v>
+        <v>31.45118121903505</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>21.79743268873647</v>
+        <v>32.27448560953002</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>22.94120681662742</v>
+        <v>38.45916027169557</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>23.11357306182511</v>
+        <v>40.83846906746356</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>22.28459290056861</v>
+        <v>22.29184569923797</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>24.22772323195352</v>
+        <v>37.58213827505409</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>24.48701432341425</v>
+        <v>42.38473881641727</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>14.8783663896852</v>
+        <v>7.579398147945714</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>19.30302908494739</v>
+        <v>35.22316013657104</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>20.2744550609403</v>
+        <v>41.1619554240396</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>16.65971234061639</v>
+        <v>18.03052292101274</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>19.6337897493441</v>
+        <v>28.38399017476747</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>20.30299448238252</v>
+        <v>33.13224949585305</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>16.35233724910819</v>
+        <v>25.47413496663996</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>19.24004139710643</v>
+        <v>33.27591012302133</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>21.00168101594487</v>
+        <v>-2.643212684899648</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>22.42616294290677</v>
+        <v>24.99779924602598</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>22.70384976426027</v>
+        <v>30.93593129356924</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>21.1505461844014</v>
+        <v>7.807427826273798</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>21.99512327762392</v>
+        <v>18.15888634932429</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>22.23140546071176</v>
+        <v>22.90674376660292</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>21.07964495646169</v>
+        <v>15.24956925891189</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>21.96551566221493</v>
+        <v>23.04989054612264</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>22.22168094094587</v>
+        <v>26.3277684266439</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>22.00798962463389</v>
+        <v>27.15101111079509</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>22.76662750709507</v>
+        <v>33.3356643648678</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>22.95085861389869</v>
+        <v>35.71498809837027</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>22.39738341883054</v>
+        <v>17.16844211683776</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>23.65459724445188</v>
+        <v>32.45866189112388</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>23.95157881363556</v>
+        <v>37.26129756357415</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>18.21050047454194</v>
+        <v>2.455900444028718</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>20.6577765046829</v>
+        <v>30.09958530566002</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>21.85138392043723</v>
+        <v>36.03841748845463</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>18.84918743670436</v>
+        <v>12.90669892478713</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>20.69077362702475</v>
+        <v>23.2601099686064</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>21.42513596552676</v>
+        <v>28.00840536466371</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>18.67024130097685</v>
+        <v>20.35023099364145</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>20.48794661822925</v>
+        <v>28.15195499004523</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>16.95501393361629</v>
+        <v>29.33587121819625</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>16.33226421322322</v>
+        <v>30.15957069506868</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>17.16993001304108</v>
+        <v>36.34506431856454</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>17.56128399611496</v>
+        <v>38.72467270564442</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>16.95916705044502</v>
+        <v>20.1762937177528</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>18.30891922922829</v>
+        <v>35.46832070737986</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>18.91648053151982</v>
+        <v>40.27166372208688</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>19.87765144438884</v>
+        <v>9.43266217088507</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>21.54279403683869</v>
+        <v>37.07599158758984</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>22.26427669573138</v>
+        <v>43.01480575777754</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>16.78516716345873</v>
+        <v>19.88368879706065</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>17.96535085690813</v>
+        <v>30.23723900654096</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>18.59322012745796</v>
+        <v>34.98556122331689</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>17.34071851016883</v>
+        <v>27.32746182218654</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>18.50010033429823</v>
+        <v>35.12929586704166</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>19.15364862805096</v>
+        <v>38.40751651364388</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>18.6170514327163</v>
+        <v>39.23160419755646</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>19.45899276076192</v>
+        <v>45.41715102184236</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>19.91280069835599</v>
+        <v>47.79677464756543</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>19.12795392646403</v>
+        <v>29.2483083332715</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>20.47458141999114</v>
+        <v>44.54048676865381</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>21.19004729731969</v>
+        <v>49.34388044509939</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>21.36011876169713</v>
+        <v>33.89033831850696</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>22.77740369056666</v>
+        <v>34.71410879300964</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>24.90354149144293</v>
+        <v>40.89965521405696</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>25.44654534314635</v>
+        <v>43.27926283235951</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>23.59147508554686</v>
+        <v>24.7307153363401</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>26.97763770623797</v>
+        <v>40.02289340614556</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>27.87638830276578</v>
+        <v>44.82623043754819</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>21.61562102785463</v>
+        <v>13.98665465687958</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>26.17414387876976</v>
+        <v>41.63019734529342</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>27.03831790449927</v>
+        <v>47.56900754829445</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>25.07802802483243</v>
+        <v>24.43805689621235</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>28.04259359620861</v>
+        <v>34.7917236575193</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>28.60590697751004</v>
+        <v>39.54003592962084</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>24.33504036755972</v>
+        <v>31.88193303057546</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>27.18772668357855</v>
+        <v>39.68386311835815</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>27.73766622271746</v>
+        <v>42.96207485769327</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>30.05265362482136</v>
+        <v>43.78623353777624</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>32.15760589549276</v>
+        <v>49.97183315962621</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>32.64432305242556</v>
+        <v>52.35145601589335</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>30.69516597339555</v>
+        <v>33.80282119449322</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>34.0433326650231</v>
+        <v>49.09515070973208</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>34.8517047711833</v>
+        <v>53.89853840198697</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>19.90676992905473</v>
+        <v>36.55410362263279</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>21.161188989204</v>
+        <v>37.3778774753228</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>23.28631296288522</v>
+        <v>43.56342788366186</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>23.86965910642059</v>
+        <v>45.9430303418348</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>22.03045554337169</v>
+        <v>27.39445648505836</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>25.4102731365407</v>
+        <v>42.68665654349633</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>26.37774431472298</v>
+        <v>47.48998214587613</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>20.43017952106527</v>
+        <v>16.65023530903074</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>24.97512497424622</v>
+        <v>44.29377859838206</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>25.88884476408995</v>
+        <v>50.23257483200069</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>23.68697912632636</v>
+        <v>27.1018074057518</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>26.67666302215497</v>
+        <v>37.45549864105288</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>27.2811738458246</v>
+        <v>42.20379552979392</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>23.02502877010347</v>
+        <v>34.5457020035164</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>25.89665282882456</v>
+        <v>42.34765466739128</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>26.48538368514367</v>
+        <v>45.62585678418947</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>28.64592758679107</v>
+        <v>46.4500188411285</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>30.75741005202315</v>
+        <v>52.63562244946439</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>31.27685862760103</v>
+        <v>55.01524014527917</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>29.33415553996582</v>
+        <v>36.46657896403684</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>32.68765540717297</v>
+        <v>51.75893046691664</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>33.54950214055219</v>
+        <v>56.56230672916473</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>21.3597578451432</v>
+        <v>31.4301766625992</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>20.99774036864338</v>
+        <v>32.25388880881263</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>22.27375728299945</v>
+        <v>38.43941780897313</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>22.90065713777113</v>
+        <v>40.81903520552038</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>21.46543935549378</v>
+        <v>22.27053874006748</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>23.47386935067768</v>
+        <v>37.56266599347924</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>24.50732285464001</v>
+        <v>42.36602672821681</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>24.04945680675001</v>
+        <v>11.52671792077803</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>26.51118857318158</v>
+        <v>39.17018408453754</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>27.73697734620663</v>
+        <v>45.109017214944</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>25.67362128974126</v>
+        <v>21.97796372579211</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>27.52458091779473</v>
+        <v>32.33159875223288</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>28.36384220648889</v>
+        <v>37.07993171648462</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>25.28286648694818</v>
+        <v>29.42177834771912</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>27.07981400560956</v>
+        <v>37.22367985281466</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>28.04963531762116</v>
+        <v>40.50191014273281</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>27.96908066430384</v>
+        <v>41.32601049546184</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>29.27596177143094</v>
+        <v>47.51159269648605</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>29.95081147380129</v>
+        <v>49.89122533115363</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>28.11171363197612</v>
+        <v>31.3426415397783</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>30.17772173784321</v>
+        <v>46.6349202387633</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>31.27489827024966</v>
+        <v>51.43833163436517</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>17.77181147775158</v>
+        <v>-2.763643367540507</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>19.29606929490947</v>
+        <v>24.87671822721797</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>19.76197735694024</v>
+        <v>30.8148447463197</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>16.06064975109162</v>
+        <v>7.686774163509941</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>16.92515877810698</v>
+        <v>18.03787175571808</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>17.51425072938186</v>
+        <v>22.78574424380628</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>16.59425217499607</v>
+        <v>15.12877005052752</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>17.46914846493139</v>
+        <v>22.92880960317831</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>18.09979353489976</v>
+        <v>26.2067064457147</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>16.98871060877131</v>
+        <v>27.02992678332766</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>17.95078693778439</v>
+        <v>33.21441197591986</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>18.27402715996116</v>
+        <v>35.59373926207871</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>17.27327524313199</v>
+        <v>17.04761158067453</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>18.92128470239076</v>
+        <v>32.33739623716366</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>19.38979682872555</v>
+        <v>37.14004494401667</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>15.53245637556368</v>
+        <v>2.334794304161111</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>18.40749092106147</v>
+        <v>29.97782876892251</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>19.48845820839067</v>
+        <v>35.91665542198683</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>10.81087844723931</v>
+        <v>12.78536976067136</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>12.81142772895581</v>
+        <v>23.13841983601009</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>13.82289694217683</v>
+        <v>27.88673030521074</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>11.58744794434239</v>
+        <v>20.22875624708985</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>13.57319384447677</v>
+        <v>28.03019847998877</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>16.26716006076102</v>
+        <v>1.78973296160888</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>20.14837508813263</v>
+        <v>29.43030781072861</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>20.50945392101111</v>
+        <v>35.3684303635485</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>17.68663184981418</v>
+        <v>12.24052607094069</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>19.58674553921546</v>
+        <v>22.59174020088318</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>19.95021413301944</v>
+        <v>27.33960274506007</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>17.37215740601538</v>
+        <v>19.6826250524793</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>19.29984061107287</v>
+        <v>27.48276063772102</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>19.79833435575075</v>
+        <v>30.76064857349815</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>20.12094985231029</v>
+        <v>31.58393990534075</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>22.14163104198903</v>
+        <v>37.76847788993058</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>22.39325953543331</v>
+        <v>40.14780440682392</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>20.62092137027151</v>
+        <v>21.60150823279418</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>24.06937444042764</v>
+        <v>36.89144395457316</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>24.4578656072288</v>
+        <v>41.69408667658053</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>17.4580423068948</v>
+        <v>6.888686895917605</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>25.51565149056514</v>
+        <v>34.53193463091071</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>26.95474277326129</v>
+        <v>40.47075731943374</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>22.80983741214089</v>
+        <v>17.33963796132565</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>28.09872746213319</v>
+        <v>27.69280458627572</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>29.08404226518087</v>
+        <v>32.44110511226114</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>21.55368073071941</v>
+        <v>24.78312755568703</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>26.71387031616225</v>
+        <v>32.58466582998045</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>14.24703101777977</v>
+        <v>4.453012393764144</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>18.11167193660184</v>
+        <v>32.0935878461018</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>18.50506562979761</v>
+        <v>38.03169643217319</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>15.79791764023253</v>
+        <v>14.90397534382175</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>17.70423621165136</v>
+        <v>25.25521394939114</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>18.13140778849037</v>
+        <v>30.00306111204378</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>15.57762248654971</v>
+        <v>22.34609278780153</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>17.50794781743741</v>
+        <v>30.1462509501236</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>18.08374225540972</v>
+        <v>33.42412926424078</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>18.18147900102113</v>
+        <v>34.24742397848121</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>20.20190743726077</v>
+        <v>40.43196595123999</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>20.48219424296693</v>
+        <v>42.81128730886809</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>18.76516075317573</v>
+        <v>24.26496477431721</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>22.21084594279847</v>
+        <v>39.55492248442812</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>22.63768850913927</v>
+        <v>44.35755377888705</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>14.91856340325048</v>
+        <v>9.552230313754141</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>22.94359328952233</v>
+        <v>37.19547865056251</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>24.484884798966</v>
+        <v>43.13428737106307</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>19.87677165957647</v>
+        <v>20.00335123590475</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>25.20620260552164</v>
+        <v>30.35654233586724</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>26.2640999619115</v>
+        <v>35.10482747936743</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>18.77687291981878</v>
+        <v>27.44685929392501</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>23.96689503105721</v>
+        <v>35.2484201448778</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>15.69948650626864</v>
+        <v>-0.6699431057765501</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>18.19739399111885</v>
+        <v>26.97055522569787</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>18.68539005834041</v>
+        <v>32.90870070391048</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>16.20291163601739</v>
+        <v>9.780693585520741</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>17.68342011459648</v>
+        <v>20.13187598456415</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>18.11494252548919</v>
+        <v>24.87975922018103</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>16.11855223699946</v>
+        <v>17.22273106045026</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>17.66435284993691</v>
+        <v>25.02283806602776</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>18.13054164803861</v>
+        <v>28.30074455133712</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>17.47554604616779</v>
+        <v>29.12397755905187</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>18.84730633551138</v>
+        <v>35.3084981246364</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>19.17610041048691</v>
+        <v>37.68783441932982</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>17.98587823255621</v>
+        <v>19.14158927100192</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>20.27056542295697</v>
+        <v>34.43147418149675</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>20.79760557116411</v>
+        <v>39.23414060598355</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>17.13502009094414</v>
+        <v>4.428760689585548</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>21.63145157443862</v>
+        <v>32.07193190101651</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>23.65826462296214</v>
+        <v>38.01077751569545</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>19.39250516473278</v>
+        <v>14.87955532248515</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>22.74301935059995</v>
+        <v>25.23269021367964</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>24.00523918282618</v>
+        <v>29.9810114312383</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>18.73725472855336</v>
+        <v>22.3229834039052</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>22.05770843205927</v>
+        <v>30.12449309607547</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>14.65157973010203</v>
+        <v>31.30843911625783</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>13.96840745738716</v>
+        <v>32.13212889842799</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>15.4686612033993</v>
+        <v>38.31748981915672</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>16.16174768457016</v>
+        <v>40.69711076895379</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>14.69641219587069</v>
+        <v>22.14903264198171</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>17.1201560738061</v>
+        <v>37.44072473161151</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>18.19650796962504</v>
+        <v>42.24409850130877</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>17.82456628155845</v>
+        <v>11.40521330700227</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>20.81445568177804</v>
+        <v>39.04802907487164</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>22.01832508528171</v>
+        <v>44.98685667557794</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>13.39863948321819</v>
+        <v>21.85623608066686</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>15.47697151006408</v>
+        <v>32.20951013690768</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>16.56399241130114</v>
+        <v>36.95785817288908</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>14.04731515674123</v>
+        <v>29.2999051066941</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>16.09434729927404</v>
+        <v>37.10152484550207</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>17.22999382215276</v>
+        <v>40.37977409878982</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>16.76000920469083</v>
+        <v>41.20385208720717</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>18.26384992160203</v>
+        <v>47.38926620760259</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>19.03908178089567</v>
+        <v>49.76890239434539</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>17.38026912796901</v>
+        <v>31.22073694767807</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>19.7937446074767</v>
+        <v>46.51258047794073</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>21.01091515000761</v>
+        <v>51.31600490717693</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>27.70805309919029</v>
+        <v>35.86289756025775</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>30.89023733790928</v>
+        <v>36.68665833867539</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>34.71913545127491</v>
+        <v>42.87207205591238</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>35.56251989346106</v>
+        <v>45.25169223743848</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>31.66491186007305</v>
+        <v>26.70344560374116</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>37.77351717411868</v>
+        <v>41.99528877065785</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>39.16855392692427</v>
+        <v>46.79865655848488</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>24.86361146163121</v>
+        <v>15.959197136701</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>33.10650751855809</v>
+        <v>43.60222617233507</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>34.49779487733744</v>
+        <v>49.54104980709366</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>32.60624666024391</v>
+        <v>26.41059552157305</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>37.90550412204385</v>
+        <v>36.76398612734937</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>38.8098095984355</v>
+        <v>41.51232421955893</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>30.79828689582878</v>
+        <v>33.85436765618505</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>35.91997605115071</v>
+        <v>41.65608343568914</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>36.80533112615753</v>
+        <v>44.93432378288054</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>41.45508884633695</v>
+        <v>45.75847276658266</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>45.23577750247856</v>
+        <v>51.94393968307799</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>46.01253513660751</v>
+        <v>54.32357510066998</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>42.0441304956803</v>
+        <v>35.77524114910983</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>48.06380516772371</v>
+        <v>51.06723575625716</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>49.35341875596151</v>
+        <v>55.87065420246137</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>25.02603044698738</v>
+        <v>38.52664225310349</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>27.91072896969179</v>
+        <v>39.35040641021391</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>31.74709980024457</v>
+        <v>45.53582411448502</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>32.66511971466682</v>
+        <v>47.91543913616118</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>28.78890196785229</v>
+        <v>29.36716614137714</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>34.90006219926943</v>
+        <v>44.65903129704174</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>36.42236233563277</v>
+        <v>49.46238765581057</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>22.72600899530721</v>
+        <v>18.62275717876702</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>30.95247301017945</v>
+        <v>46.26578681578616</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>32.43168580816253</v>
+        <v>52.20459648178206</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>30.11512342879163</v>
+        <v>29.07432541922998</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>35.47565517161397</v>
+        <v>39.42774049873691</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>36.45278600305284</v>
+        <v>44.17606320807903</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>28.44591604205431</v>
+        <v>36.51811601764001</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>33.61858135094743</v>
+        <v>44.31985437316058</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>34.57219645148348</v>
+        <v>47.59808509778821</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>38.9420500489145</v>
+        <v>48.42223745846792</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>42.74542528457271</v>
+        <v>54.60770836185822</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>43.58165658249752</v>
+        <v>56.98733861913848</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>39.61184536806341</v>
+        <v>38.43897830713314</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>45.65801531163382</v>
+        <v>53.73099490192584</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>47.04517240053568</v>
+        <v>58.53440191830299</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>23.56027250665894</v>
+        <v>33.40274337629506</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>23.1619700795711</v>
+        <v>34.22644582712331</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>25.51679083660872</v>
+        <v>40.41184212381648</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>26.57557453270794</v>
+        <v>42.79147208333694</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>23.48601336146544</v>
+        <v>24.24327647980312</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>27.20388731819808</v>
+        <v>39.53506883191932</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>28.9440749758962</v>
+        <v>44.33846032187222</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>26.29544238825473</v>
+        <v>13.49926787270539</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>30.81399074333532</v>
+        <v>41.14222038542033</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>32.88858295423906</v>
+        <v>47.08106694683971</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>30.16455461521098</v>
+        <v>23.95050982415814</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>33.52850014995194</v>
+        <v>34.30386869615489</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>34.97145627291584</v>
+        <v>39.0522274799651</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>29.17262309658409</v>
+        <v>31.39422044655072</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>32.46210236917648</v>
+        <v>39.19590764438198</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>34.12999101871638</v>
+        <v>42.47416654122247</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>34.14649882146838</v>
+        <v>43.29825719856257</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>36.55369607229233</v>
+        <v>49.483706694624</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>37.69857292240025</v>
+        <v>51.8633518904324</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>33.9531028260532</v>
+        <v>33.31506896758134</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>37.7692529133884</v>
+        <v>48.60701276018568</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>39.62566653893852</v>
+        <v>53.41045490864366</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/additive/ranking_test3/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-7.215938595677184</v>
+        <v>-7.215938595643077</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>20.42464216629611</v>
+        <v>20.42464216625098</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>26.36258728231605</v>
+        <v>26.36258728223578</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.23428961388419</v>
+        <v>3.234289613873617</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>13.5855771125344</v>
+        <v>13.58557711257078</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>18.33329971961036</v>
+        <v>18.33329971966277</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>10.67623558399288</v>
+        <v>10.67623558397401</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>18.47643971005067</v>
+        <v>18.4764397100351</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>21.75421048760478</v>
+        <v>21.75421048767891</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>22.577428333049</v>
+        <v>22.57742833305594</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>28.7619849177458</v>
+        <v>28.76198491773807</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>31.14123111895555</v>
+        <v>31.14123111900762</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12.59505767446894</v>
+        <v>12.59505767441255</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>27.88503996201127</v>
+        <v>27.88503996204014</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>32.68751751888891</v>
+        <v>32.68751751896644</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-2.117385452899779</v>
+        <v>-2.117385452928882</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.52586819785853</v>
+        <v>25.52586819783307</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>31.46451342459119</v>
+        <v>31.46451342448535</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>8.333000698015841</v>
+        <v>8.333000698034144</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>18.68624068647688</v>
+        <v>18.68624068649871</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>23.43440125358081</v>
+        <v>23.43440125366493</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>15.77633728039683</v>
+        <v>15.77633728029952</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>23.57794409283605</v>
+        <v>23.57794409281616</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-2.662667918575092</v>
+        <v>-2.662667918537235</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>24.97812609885017</v>
+        <v>24.97812609882095</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>30.91606724682157</v>
+        <v>30.91606724682066</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>7.78793586503679</v>
+        <v>7.787935864964599</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>18.13933990240122</v>
+        <v>18.1393399023678</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>22.887052564042</v>
+        <v>22.88705256405325</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>15.22998492680626</v>
+        <v>15.22998492675055</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>23.03028508647293</v>
+        <v>23.03028508638869</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>26.30804695607157</v>
+        <v>26.30804695602382</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>27.13133579636764</v>
+        <v>27.13133579630045</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>33.31594517378193</v>
+        <v>33.31594517375908</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>35.69519060510055</v>
+        <v>35.69519060508725</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>17.14884866926178</v>
+        <v>17.14884866926167</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>32.43898202297197</v>
+        <v>32.4389820229473</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>37.24145359316464</v>
+        <v>37.24145359319647</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2.436401481238537</v>
+        <v>2.43640148122569</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>30.07986840371786</v>
+        <v>30.079868403675</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>36.01850966377259</v>
+        <v>36.01850966372086</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>12.88716323738089</v>
+        <v>12.88716323734701</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>23.24051977668984</v>
+        <v>23.24051977663425</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>27.98867039900148</v>
+        <v>27.98867039897226</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>20.33060292518013</v>
+        <v>20.33060292508225</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>28.13230577982717</v>
+        <v>28.1323057797984</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.0005817292575933664</v>
+        <v>0.0005817292762380077</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>27.64137634918376</v>
+        <v>27.64137634918285</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>33.57930353001296</v>
+        <v>33.57930352999318</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>10.45135535221806</v>
+        <v>10.45135535218532</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>20.80278386444951</v>
+        <v>20.80278386442837</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>25.5504811446221</v>
+        <v>25.55048114457515</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>17.89342287607366</v>
+        <v>17.89342287591257</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>25.69374561225283</v>
+        <v>25.69374561227659</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>28.97149786005849</v>
+        <v>28.97149786004599</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>29.7947900827798</v>
+        <v>29.79479008275559</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>35.97940344831505</v>
+        <v>35.9794034483096</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>38.35864372008967</v>
+        <v>38.35864372006318</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>19.81227542463438</v>
+        <v>19.81227542458243</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>35.10243076628836</v>
+        <v>35.10243076625358</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>39.90489090869738</v>
+        <v>39.90489090871102</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>5.099915111614965</v>
+        <v>5.099915111618262</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>32.7433826349066</v>
+        <v>32.74338263481769</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>38.68200992647434</v>
+        <v>38.68200992647388</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>15.55084672339735</v>
+        <v>15.55084672337108</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>25.90422773657139</v>
+        <v>25.90422773659242</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>30.65236297629992</v>
+        <v>30.65236297627775</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>22.99430487408171</v>
+        <v>22.99430487407</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>30.79603030509333</v>
+        <v>30.79603030511857</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-5.122295697450053</v>
+        <v>-5.122295697410035</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>22.51842180096361</v>
+        <v>22.51842180096202</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>28.45638587492505</v>
+        <v>28.45638587495711</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>5.328151670160938</v>
+        <v>5.328151670226422</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>15.6795239757177</v>
+        <v>15.67952397571588</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>20.42725732951232</v>
+        <v>20.42725732960691</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>12.77013922691339</v>
+        <v>12.77013922690896</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>20.57041080591552</v>
+        <v>20.57041080594314</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>23.84819122570702</v>
+        <v>23.84819122572179</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>24.67142174227508</v>
+        <v>24.67142174228178</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>30.85601370039348</v>
+        <v>30.85601370043384</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>33.23526890973068</v>
+        <v>33.23526890975319</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>14.68897799902203</v>
+        <v>14.68897799901874</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>29.97906054023651</v>
+        <v>29.97906054026368</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>34.78155581410209</v>
+        <v>34.78155581414222</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>-0.02347643347132689</v>
+        <v>-0.0234764334236921</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>27.6199139639644</v>
+        <v>27.61991396398622</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>33.55857815085659</v>
+        <v>33.55857815084977</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>10.42712889207343</v>
+        <v>10.4271288920283</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>20.78045369631372</v>
+        <v>20.78045369635476</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>25.52862501075282</v>
+        <v>25.52862501073566</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>17.8705070681753</v>
+        <v>17.87050706815007</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>25.67218133976184</v>
+        <v>25.67218133977696</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>26.85605864638461</v>
+        <v>26.85605864637006</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>27.67974596402195</v>
+        <v>27.67974596401422</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>33.86517828105247</v>
+        <v>33.86517828104894</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>36.24471813414965</v>
+        <v>36.24471813417603</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>17.69659425179504</v>
+        <v>17.69659425181948</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>32.98848398847446</v>
+        <v>32.98848398848617</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>37.79168658027305</v>
+        <v>37.79168658028476</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>6.953416661927751</v>
+        <v>6.953416661953444</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>34.5964516224762</v>
+        <v>34.59645162247597</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>40.53509779548909</v>
+        <v>40.53509779545931</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>17.40425013104158</v>
+        <v>17.40425013105954</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>27.75771409927399</v>
+        <v>27.75771409924295</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>32.50591223348096</v>
+        <v>32.50591223347232</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>24.84786926933436</v>
+        <v>24.84786926930537</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>32.64965358866442</v>
+        <v>32.64965358869728</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>35.92777675801989</v>
+        <v>35.92777675803205</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>36.75185227890921</v>
+        <v>36.75185227890046</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>42.93733779613586</v>
+        <v>42.937337796127</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>45.31689288739204</v>
+        <v>45.31689288741615</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>26.76868167829383</v>
+        <v>26.7686816782944</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>42.06072286014245</v>
+        <v>42.0607228601894</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>46.86397611093668</v>
+        <v>46.86397611094827</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>31.41041142598255</v>
+        <v>31.41041142594992</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>32.2341697406992</v>
+        <v>32.23416974066225</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>38.41965485423651</v>
+        <v>38.41965485422355</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>40.79919393829408</v>
+        <v>40.79919393828317</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>22.25090155119284</v>
+        <v>22.25090155115942</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>37.54294236627021</v>
+        <v>37.54294236629238</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>42.34613897393825</v>
+        <v>42.34613897391245</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>11.50729483727008</v>
+        <v>11.50729483733</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>39.15054306705923</v>
+        <v>39.15054306698818</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>45.08918527203872</v>
+        <v>45.08918527204952</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>21.95850391311109</v>
+        <v>21.95850391305231</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>32.3120844319979</v>
+        <v>32.31208443195891</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>37.06027262103822</v>
+        <v>37.06027262100071</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>29.40222615781562</v>
+        <v>29.40222615780471</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>37.20410651884794</v>
+        <v>37.20410651879916</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>40.48222078067471</v>
+        <v>40.48222078070199</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>41.30636729760982</v>
+        <v>41.30636729756696</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>47.4919056110661</v>
+        <v>47.49190561103381</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>49.87145993270627</v>
+        <v>49.87145993272946</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>31.32308021991111</v>
+        <v>31.32308021991725</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>46.61527247985413</v>
+        <v>46.61527247986936</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>51.41851974551179</v>
+        <v>51.41851974550997</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>34.07412632908319</v>
+        <v>34.07412632902964</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>34.89788802225922</v>
+        <v>34.89788802225024</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>41.08337712322788</v>
+        <v>41.08337712316262</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>43.46291104721314</v>
+        <v>43.46291104721416</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>24.9145922999374</v>
+        <v>24.91459229987897</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>40.2066551030502</v>
+        <v>40.20665510303337</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>45.0098402816389</v>
+        <v>45.00984028164322</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>14.17082509245967</v>
+        <v>14.17082509254618</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>41.81407392269642</v>
+        <v>41.81407392276441</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>47.75270215845507</v>
+        <v>47.75270215846098</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>24.62220402264842</v>
+        <v>24.62220402261818</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>34.97580901473526</v>
+        <v>34.97580901473594</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>39.72398182047692</v>
+        <v>39.7239818204668</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>32.06594473014178</v>
+        <v>32.06594473017248</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>39.86784766686168</v>
+        <v>39.86784766681791</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>43.14595230602919</v>
+        <v>43.14595230603669</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>43.97010219984901</v>
+        <v>43.97010219983719</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>50.15564450028666</v>
+        <v>50.15564450027188</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>52.53519366142183</v>
+        <v>52.53519366145105</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>33.98678758902878</v>
+        <v>33.98678758897864</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>49.27900183624348</v>
+        <v>49.27900183630499</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>54.08223767205931</v>
+        <v>54.08223767207113</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>28.95030553649048</v>
+        <v>28.95030553652845</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.77400552390799</v>
+        <v>29.77400552391856</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>35.95947321691978</v>
+        <v>35.95947321695252</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>38.33902207932027</v>
+        <v>38.33902207933187</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>19.79078072173531</v>
+        <v>19.79078072173485</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>35.08277072080608</v>
+        <v>35.08277072090726</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>39.88599103200983</v>
+        <v>39.8859910320503</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>9.047413863637363</v>
+        <v>9.047413863702392</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>36.69058556930923</v>
+        <v>36.69058556938154</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>42.62925070145894</v>
+        <v>42.62925070151658</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>19.49846650784338</v>
+        <v>19.49846650784292</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.85201529206103</v>
+        <v>29.85201529201555</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>34.60022417297097</v>
+        <v>34.60022417295835</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>26.94212724203482</v>
+        <v>26.94212724206779</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>34.74397902046195</v>
+        <v>34.74397902044547</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>38.02211183278092</v>
+        <v>38.02211183279695</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>38.84620002321373</v>
+        <v>38.84620002322225</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>45.03172091617211</v>
+        <v>45.03172091618973</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>47.41128501612201</v>
+        <v>47.41128501616316</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>28.86295633158688</v>
+        <v>28.86295633160291</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>44.15509777593769</v>
+        <v>44.15509777602011</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>48.95836874511139</v>
+        <v>48.95836874516777</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-7.697979459336178</v>
+        <v>-7.697979459314919</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>19.94205253541435</v>
+        <v>19.94205253544391</v>
       </c>
     </row>
     <row r="184">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>2.752028618437127</v>
+        <v>2.752028618437922</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>13.10300972385432</v>
+        <v>13.10300972396789</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>17.85077843110156</v>
+        <v>17.85077843116409</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>10.19388458784221</v>
+        <v>10.19388458782447</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>17.99384853965472</v>
+        <v>17.9938485396678</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>21.27166943605159</v>
+        <v>21.27166943606602</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>22.09491917776512</v>
+        <v>22.09491917779309</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>28.2793247217432</v>
+        <v>28.27932472174263</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>30.65859771031939</v>
+        <v>30.65859771036702</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>12.11279634148599</v>
+        <v>12.11279634143756</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>27.40238234360374</v>
+        <v>27.40238234359146</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>32.20492323530783</v>
+        <v>32.20492323530215</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-2.600147897182463</v>
+        <v>-2.600147897123914</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>25.0425569420849</v>
+        <v>25.04255694207456</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>30.98125475651154</v>
+        <v>30.98125475654109</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>7.85001807767998</v>
+        <v>7.850018077627684</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>18.20295164835824</v>
+        <v>18.20295164838757</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>22.95115832759695</v>
+        <v>22.95115832761536</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>15.29326462787725</v>
+        <v>15.2932646278627</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>23.09463124720702</v>
+        <v>23.09463124722942</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>-3.144709725055744</v>
+        <v>-3.144709725045285</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>24.49553552132688</v>
+        <v>24.49553552131903</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>30.43352924837831</v>
+        <v>30.43352924837024</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>7.305673924212162</v>
+        <v>7.305673924190447</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>17.65677156601231</v>
+        <v>17.65677156604722</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>22.40453032932061</v>
+        <v>22.40453032931788</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>14.74763298580291</v>
+        <v>14.74763298576949</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>22.54769296936314</v>
+        <v>22.54769296936349</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>25.82550495877701</v>
+        <v>25.82550495878553</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>26.64882569466574</v>
+        <v>26.64882569459741</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>32.83328403004163</v>
+        <v>32.83328403002866</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>35.21255624936981</v>
+        <v>35.21255624935537</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>16.66658639065014</v>
+        <v>16.6665863906199</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>31.95632345597341</v>
+        <v>31.95632345598182</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>36.75885836275035</v>
+        <v>36.75885836272624</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>1.953638091081022</v>
+        <v>1.953638091173449</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.59655619789459</v>
+        <v>29.59655619794859</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>35.53525004730267</v>
+        <v>35.53525004729926</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>12.40417966799697</v>
+        <v>12.40417966804791</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>22.75722978749281</v>
+        <v>22.75722978748985</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>27.50542652340602</v>
+        <v>27.50542652343569</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>19.84752932397527</v>
+        <v>19.84752932392718</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>27.64899198361406</v>
+        <v>27.64899198358882</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-0.4814672180864896</v>
+        <v>-0.4814672179997466</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>27.15877863130715</v>
+        <v>27.1587786313483</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>33.09675839181403</v>
+        <v>33.09675839172252</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>9.969086270066615</v>
+        <v>9.96908627001341</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>20.32020838692933</v>
+        <v>20.32020838690625</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>25.06795176903751</v>
+        <v>25.06795176909219</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>17.41106379382763</v>
+        <v>17.41106379380114</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>25.21114635398311</v>
+        <v>25.21114635396492</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>28.48894872195416</v>
+        <v>28.4889487220234</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>29.31227283984396</v>
+        <v>29.31227283989341</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>35.49673516356694</v>
+        <v>35.49673516353477</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>37.87600222351244</v>
+        <v>37.87600222348084</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>19.33000600497491</v>
+        <v>19.33000600498957</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>34.6197650584341</v>
+        <v>34.61976505844854</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>39.42228853769944</v>
+        <v>39.42228853767466</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>4.61714458128478</v>
+        <v>4.617144581408812</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>32.26006328958607</v>
+        <v>32.26006328957936</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>38.19874317121531</v>
+        <v>38.19874317129194</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>15.067856013621</v>
+        <v>15.06785601365545</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>25.42093060725387</v>
+        <v>25.42093060727797</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>30.16911196092184</v>
+        <v>30.1691119609738</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>22.51122413256332</v>
+        <v>22.51122413248385</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>30.31270936857874</v>
+        <v>30.31270936860068</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-5.6043362655119</v>
+        <v>-5.604336265506671</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>22.03583246367458</v>
+        <v>22.03583246366742</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>27.97384911607816</v>
+        <v>27.9738491160702</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>4.845890968902101</v>
+        <v>4.845890968956784</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>15.19695688007886</v>
+        <v>15.19695688015708</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>19.94473633480863</v>
+        <v>19.94473633479601</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>12.28778852513591</v>
+        <v>12.28778852512125</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>20.08781992911947</v>
+        <v>20.08781992915585</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>23.36565046819652</v>
+        <v>23.36565046822574</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>24.18891288026538</v>
+        <v>24.18891288031154</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>30.37335379663643</v>
+        <v>30.37335379666905</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>32.75263579372978</v>
+        <v>32.75263579374786</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>14.20671695995151</v>
+        <v>14.20671695995469</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>29.49640321429519</v>
+        <v>29.49640321429087</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>34.29896182354418</v>
+        <v>34.2989618235917</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>-0.506238583783496</v>
+        <v>-0.5062385837452972</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>27.1366029998481</v>
+        <v>27.13660299993041</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>33.07531977538309</v>
+        <v>33.0753197754554</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>9.944146563270071</v>
+        <v>9.944146563277574</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>20.29716494871088</v>
+        <v>20.29716494875692</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>25.04538237603885</v>
+        <v>25.04538237606898</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>17.38743470725212</v>
+        <v>17.38743470725973</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>25.18886878498455</v>
+        <v>25.18886878497046</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>26.37279593049124</v>
+        <v>26.37279593056047</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>27.19651512070113</v>
+        <v>27.19651512062984</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>33.38179638409378</v>
+        <v>33.38179638409105</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>35.76136303021559</v>
+        <v>35.76136303017637</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>17.21361124428103</v>
+        <v>17.21361124422953</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>32.50510466380609</v>
+        <v>32.5051046637729</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>37.3083706045357</v>
+        <v>37.30837060459061</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>6.470501271969116</v>
+        <v>6.470501271997652</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>34.11298742514356</v>
+        <v>34.11298742516504</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>40.05168618388331</v>
+        <v>40.05168618390138</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>16.92111456814218</v>
+        <v>16.92111456807544</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>27.27427212103879</v>
+        <v>27.2742721210754</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>32.02251636342743</v>
+        <v>32.02251636343516</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>24.36464366308843</v>
+        <v>24.3646436630898</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>32.1661877898693</v>
+        <v>32.1661877898153</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>35.44436108777887</v>
+        <v>35.44436108778388</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>36.26846847558062</v>
+        <v>36.26846847555117</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>42.45380293993691</v>
+        <v>42.45380293998102</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>44.83338482141863</v>
+        <v>44.8333848214898</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>26.2855457081227</v>
+        <v>26.28554570808018</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>41.57719057575349</v>
+        <v>41.57719057573871</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>46.38050717087316</v>
+        <v>46.38050717089908</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>30.92714776067504</v>
+        <v>30.92714776067902</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>31.75093794716821</v>
+        <v>31.75093794715059</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>37.93627200627765</v>
+        <v>37.9362720062507</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>40.31583788392692</v>
+        <v>40.31583788398558</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>21.76791759453585</v>
+        <v>21.76791759452721</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>37.05956208960794</v>
+        <v>37.0595620896259</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>41.86282204803689</v>
+        <v>41.86282204809567</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>11.02437849996926</v>
+        <v>11.02437850009204</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>38.66707791868811</v>
+        <v>38.66707791868242</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>44.60577271086919</v>
+        <v>44.60577271091728</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>21.47536740030359</v>
+        <v>21.47536740033269</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>31.82864150184622</v>
+        <v>31.82864150184895</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>36.57687580024191</v>
+        <v>36.57687580022372</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>28.91899960238806</v>
+        <v>28.91899960239408</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>36.72063976867531</v>
+        <v>36.72063976872784</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>39.99880416002856</v>
+        <v>39.99880416007733</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>40.82298254314782</v>
+        <v>40.82298254311632</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>47.00836980306627</v>
+        <v>47.00836980304149</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>49.38795091533979</v>
+        <v>49.38795091538742</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>30.8399432996045</v>
+        <v>30.83994329964134</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>46.13173924220285</v>
+        <v>46.13173924217307</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>50.935049854027</v>
+        <v>50.93504985404564</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>33.59085552363132</v>
+        <v>33.59085552362029</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>34.41464908857319</v>
+        <v>34.4146490885293</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>40.59998713498049</v>
+        <v>40.5999871349938</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>42.97954785278665</v>
+        <v>42.97954785276755</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>24.43160120301144</v>
+        <v>24.43160120297199</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>39.72326768619001</v>
+        <v>39.72326768617023</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>44.52651621576575</v>
+        <v>44.52651621582964</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>13.68790161496981</v>
+        <v>13.68790161504598</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>41.33060163463978</v>
+        <v>41.33060163465672</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>47.26928245818607</v>
+        <v>47.26928245812854</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>24.13906036921043</v>
+        <v>24.13906036923135</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>34.49235894369775</v>
+        <v>34.49235894372731</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>39.24057785948713</v>
+        <v>39.24057785954739</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>31.58271103435476</v>
+        <v>31.58271103427507</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>39.3843737760389</v>
+        <v>39.38437377604629</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>42.66252854537271</v>
+        <v>42.66252854535793</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>43.48671030497968</v>
+        <v>43.48671030496047</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>49.67210155175422</v>
+        <v>49.67210155179345</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>52.05167750381912</v>
+        <v>52.05167750386914</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>33.50364352825972</v>
+        <v>33.50364352831429</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>48.79546145815385</v>
+        <v>48.79546145810679</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>53.59876064040731</v>
+        <v>53.59876064037456</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>28.46704311194657</v>
+        <v>28.46704311193952</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.29077497118425</v>
+        <v>29.29077497123234</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>35.47609161023428</v>
+        <v>35.47609161027555</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>37.85566726572807</v>
+        <v>37.85566726581482</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>19.30779800586817</v>
+        <v>19.30779800590478</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>34.59939168622822</v>
+        <v>34.5993916862538</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>39.40267534691401</v>
+        <v>39.40267534690344</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>8.564498766426315</v>
+        <v>8.564498766510329</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>36.20712166260404</v>
+        <v>36.20712166260085</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>42.14583938156346</v>
+        <v>42.1458393816003</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>19.0153312361453</v>
+        <v>19.01533123618475</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>29.36857360365417</v>
+        <v>29.3685736036785</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>34.11682859355591</v>
+        <v>34.11682859358172</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>26.45890192691644</v>
+        <v>26.45890192693168</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>34.2605135115935</v>
+        <v>34.26051351160351</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>37.53869645286096</v>
+        <v>37.53869645286505</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>38.36281650973962</v>
+        <v>38.36281650977702</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>44.54818634945315</v>
+        <v>44.54818634953102</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>46.92777723983926</v>
+        <v>46.92777723986904</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>28.37982065232774</v>
+        <v>28.37982065226908</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>43.67156578077805</v>
+        <v>43.67156578075623</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>48.47490009487564</v>
+        <v>48.47490009487132</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-9.422001981049842</v>
+        <v>-9.422001981079173</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>18.21758418118674</v>
+        <v>18.21758418120493</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>24.15541086801244</v>
+        <v>24.15541086800517</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>1.027635792257289</v>
+        <v>1.027635792220909</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>11.37852841969317</v>
+        <v>11.37852841973842</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>16.12613316621759</v>
+        <v>16.12613316623953</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>8.469344273148582</v>
+        <v>8.469344273114704</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>16.2692320662157</v>
+        <v>16.2692320662016</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>19.54693667004011</v>
+        <v>19.54693667009593</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>20.37015064044221</v>
+        <v>20.37015064044607</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>26.55446311260727</v>
+        <v>26.55446311257089</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>28.93366058878036</v>
+        <v>28.93366058874046</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>10.38820124846103</v>
+        <v>10.38820124844876</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>25.67754698134928</v>
+        <v>25.67754698135656</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>30.47993149592782</v>
+        <v>30.4799314959069</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-4.324199143698987</v>
+        <v>-4.324199143618269</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>23.31805982251382</v>
+        <v>23.31805982250564</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>29.25658661568326</v>
+        <v>29.25658661571351</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>6.125596550816855</v>
+        <v>6.125596550805032</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>16.47844160388781</v>
+        <v>16.47844160388246</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>21.22648431379304</v>
+        <v>21.2264843137678</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>13.56869558593059</v>
+        <v>13.56869558590455</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>21.36998601919078</v>
+        <v>21.3699860191469</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-4.868855707570614</v>
+        <v>-4.868855707514793</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>22.77094370395656</v>
+        <v>22.77094370397214</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>28.70876642315597</v>
+        <v>28.70876642314994</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>5.5811576288441</v>
+        <v>5.581157628800899</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>15.93216679165579</v>
+        <v>15.9321667916127</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>20.67976159360598</v>
+        <v>20.67976159361041</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>13.02296919883003</v>
+        <v>13.02296919879365</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>20.82295302302618</v>
+        <v>20.82295302304391</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>24.10064871946469</v>
+        <v>24.1006487194199</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>24.9239336818643</v>
+        <v>24.92393368188079</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>31.1082989452612</v>
+        <v>31.10829894522039</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>33.48749565165662</v>
+        <v>33.48749565163365</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>14.94186782519086</v>
+        <v>14.94186782516994</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>30.23136461945836</v>
+        <v>30.23136461945814</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>35.03374314843762</v>
+        <v>35.03374314848696</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>0.2294633738216056</v>
+        <v>0.2294633738712868</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>27.87193560553709</v>
+        <v>27.87193560552004</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>33.81045843276189</v>
+        <v>33.8104584327254</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>10.67963466181738</v>
+        <v>10.67963466176724</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>21.03259626211781</v>
+        <v>21.03259626212406</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>25.7806290280052</v>
+        <v>25.78062902801202</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>18.12283679952367</v>
+        <v>18.1228367994882</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>25.92422327226103</v>
+        <v>25.92422327229582</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-2.205674069246751</v>
+        <v>-2.205674069243113</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>25.43412594526893</v>
+        <v>25.43412594526916</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>31.37193469798882</v>
+        <v>31.37193469795699</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>8.244509102113913</v>
+        <v>8.244509102084354</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>18.59554273926864</v>
+        <v>18.59554273935607</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>23.34312216050597</v>
+        <v>23.34312216053315</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>15.68633913413368</v>
+        <v>15.68633913410696</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>23.48634553418828</v>
+        <v>23.48634553420976</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>26.76403160945444</v>
+        <v>26.764031609494</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>27.58731995388286</v>
+        <v>27.58731995391867</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>33.77168920508694</v>
+        <v>33.77168920507535</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>36.15088075228601</v>
+        <v>36.15088075229318</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>17.60522656668462</v>
+        <v>17.60522656665848</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>32.89474534852008</v>
+        <v>32.8947453485668</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>37.6971124503695</v>
+        <v>37.69711245040236</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>2.892908989516346</v>
+        <v>2.892908989574554</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>30.535381822626</v>
+        <v>30.53538182264794</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>36.47389068213039</v>
+        <v>36.47389068208616</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>13.34325012922654</v>
+        <v>13.34325012922392</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>23.69623620298166</v>
+        <v>23.69623620297211</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>28.44425358723351</v>
+        <v>28.44425358716063</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>20.78647072947803</v>
+        <v>20.78647072942949</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>28.58787977804667</v>
+        <v>28.58787977802405</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-7.328416703191973</v>
+        <v>-7.328416703220054</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>20.3113061914732</v>
+        <v>20.31130619149116</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>26.24915183613877</v>
+        <v>26.24915183612069</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>3.121440221892787</v>
+        <v>3.121440221837307</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>13.47241765362941</v>
+        <v>13.47241765368864</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>18.22003314695991</v>
+        <v>18.22003314695127</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>10.56319028827551</v>
+        <v>10.56319028824186</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>18.36314553230438</v>
+        <v>18.36314553232416</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>21.64085977829979</v>
+        <v>21.64085977827182</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>22.46408641899922</v>
+        <v>22.4640864190796</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>28.64843426314775</v>
+        <v>28.64843426310307</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>31.02764074727014</v>
+        <v>31.02764074725741</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>12.48206394487937</v>
+        <v>12.482063944814</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>27.7715099277836</v>
+        <v>27.77150992778553</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>32.57391215952822</v>
+        <v>32.5739121595231</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-2.230347752246356</v>
+        <v>-2.230347752151882</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>25.41204795643313</v>
+        <v>25.41204795650362</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>31.35059371001802</v>
+        <v>31.35059371003621</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>8.219667110302741</v>
+        <v>8.219667110255561</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>18.57259697632248</v>
+        <v>18.57259697631202</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>23.32065043374059</v>
+        <v>23.32065043378458</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>15.66280773754756</v>
+        <v>15.66280773748696</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>23.46416562786186</v>
+        <v>23.46416562789927</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>24.64803440311136</v>
+        <v>24.64803440308146</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>25.4717178223188</v>
+        <v>25.47171782232175</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>31.65690599827628</v>
+        <v>31.65690599827446</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>34.03639712481112</v>
+        <v>34.03639712476883</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>15.48898740232238</v>
+        <v>15.48898740232648</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>30.78024052282587</v>
+        <v>30.78024052286634</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>35.58335007023885</v>
+        <v>35.58335007028603</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>4.746456438633633</v>
+        <v>4.746456438642841</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>32.38849672943462</v>
+        <v>32.38849672939836</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>38.32702446793343</v>
+        <v>38.32702446792695</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>15.19669944435299</v>
+        <v>15.19669944429569</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>25.54976847553741</v>
+        <v>25.54976847550524</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>30.29784874863828</v>
+        <v>30.29784874863816</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>22.64008102751922</v>
+        <v>22.64008102748432</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>30.44154896687423</v>
+        <v>30.44154896683807</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>33.71960596589309</v>
+        <v>33.71960596586797</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>34.54367756711321</v>
+        <v>34.54367756711252</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>40.72891894493733</v>
+        <v>40.72891894497326</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>43.10842530805741</v>
+        <v>43.10842530806104</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>24.56092824901561</v>
+        <v>24.56092824900037</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>39.85233282322082</v>
+        <v>39.85233282322037</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>44.65549302496453</v>
+        <v>44.65549302497919</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>29.20226274978581</v>
+        <v>29.20226274977898</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>30.0260171633974</v>
+        <v>30.02601716334056</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>36.21125813450402</v>
+        <v>36.21125813447424</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>38.59074849226869</v>
+        <v>38.59074849230052</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>20.04317026941516</v>
+        <v>20.04317026934024</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>35.33457446374285</v>
+        <v>35.33457446375115</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>40.13767802801277</v>
+        <v>40.13767802800925</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>9.300210197095627</v>
+        <v>9.300210197103016</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>36.94246375067081</v>
+        <v>36.94246375065126</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>42.88098752173875</v>
+        <v>42.88098752178445</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>19.75082879842472</v>
+        <v>19.75082879843541</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>30.10401437642935</v>
+        <v>30.10401437644277</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>34.8520847052967</v>
+        <v>34.85208470533706</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>27.19431348531652</v>
+        <v>27.19431348523057</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>34.9958774634909</v>
+        <v>34.99587746343428</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>38.27392555570526</v>
+        <v>38.27392555571834</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>39.09806814981829</v>
+        <v>39.09806814982784</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>45.28336232272312</v>
+        <v>45.2833623227213</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>47.66286791636486</v>
+        <v>47.6628679163536</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.11520235813459</v>
+        <v>29.11520235808308</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>44.40675800545642</v>
+        <v>44.4067580054562</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>49.20991222308959</v>
+        <v>49.20991222309289</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>31.86590963365194</v>
+        <v>31.86590963369764</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>32.68966742544211</v>
+        <v>32.68966742540437</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>38.87491238366289</v>
+        <v>38.87491238359593</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>41.25439758176668</v>
+        <v>41.25439758177407</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>22.7067929993853</v>
+        <v>22.70679299938314</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>37.99821918136234</v>
+        <v>37.99821918137258</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>42.80131131728268</v>
+        <v>42.80131131729451</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>11.96367243760398</v>
+        <v>11.9636724375668</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>39.60592659228604</v>
+        <v>39.60592659228286</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>45.54443639490472</v>
+        <v>45.54443639485675</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>22.41446088903576</v>
+        <v>22.41446088895936</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>32.7676709397993</v>
+        <v>32.76767093977406</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>37.51572588619257</v>
+        <v>37.51572588615642</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>29.85796403857814</v>
+        <v>29.85796403848832</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>37.65955059168942</v>
+        <v>37.6595505916668</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>40.93758906186662</v>
+        <v>40.93758906190027</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>41.76173503275362</v>
+        <v>41.76173503273486</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>47.9470331922692</v>
+        <v>47.94703319227682</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>50.32653362578554</v>
+        <v>50.32653362580976</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>31.77884170864928</v>
+        <v>31.77884170860904</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>47.07041934291993</v>
+        <v>47.07041934296575</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>51.87356213134257</v>
+        <v>51.87356213135359</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>26.74222365508155</v>
+        <v>26.74222365510895</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>27.56591974371071</v>
+        <v>27.56591974370298</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>33.75114329437503</v>
+        <v>33.75114329436741</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>36.13064343011666</v>
+        <v>36.13064343009938</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>17.58311623600668</v>
+        <v>17.58311623601873</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>32.87446961548613</v>
+        <v>32.8744696154609</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>37.67759688245116</v>
+        <v>37.67759688247355</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>6.840396010632109</v>
+        <v>6.84039601070123</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>34.48257304212717</v>
+        <v>34.48257304214695</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>40.42111974005394</v>
+        <v>40.42111974010794</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>17.29085818526079</v>
+        <v>17.29085818524351</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>27.64401202943106</v>
+        <v>27.64401202938013</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>32.39210304966565</v>
+        <v>32.39210304962177</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>24.73428136281058</v>
+        <v>24.73428136282854</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>32.53581675891127</v>
+        <v>32.53581675891024</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>35.81388340093332</v>
+        <v>35.81388340099846</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>36.63796767084494</v>
+        <v>36.63796767082562</v>
       </c>
     </row>
     <row r="537">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>45.20275979498882</v>
+        <v>45.20275979497063</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>26.65514526453814</v>
+        <v>26.65514526454098</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>41.94665009750491</v>
+        <v>41.94665009755118</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>46.74982801776372</v>
+        <v>46.74982801779146</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-4.736914125636471</v>
+        <v>-4.736914125640222</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>22.90396106697978</v>
+        <v>22.90396106694397</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>28.84207415568773</v>
+        <v>28.84207415569239</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>5.713507224017864</v>
+        <v>5.713507224101537</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>16.06488093865829</v>
+        <v>16.06488093869763</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>20.81272760862368</v>
+        <v>20.81272760858889</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>13.15560706899845</v>
+        <v>13.15560706900857</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>20.95586090176477</v>
+        <v>20.95586090176352</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>24.23372913969087</v>
+        <v>24.23372913966063</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>25.05695915301186</v>
+        <v>25.056959152964</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>31.24157703356952</v>
+        <v>31.24157703355565</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>33.62089175862349</v>
+        <v>33.62089175856494</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>15.07446324535676</v>
+        <v>15.07446324531663</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>30.3645827644545</v>
+        <v>30.36458276442744</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>35.16720071922015</v>
+        <v>35.16720071919718</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>0.3619328768828076</v>
+        <v>0.3619328769443122</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>28.00548098986843</v>
+        <v>28.00548098988697</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>33.94429421155365</v>
+        <v>33.94429421161971</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>10.81251217946619</v>
+        <v>10.81251217945414</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>21.1658384063806</v>
+        <v>21.16583840643654</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>25.91412305435921</v>
+        <v>25.91412305441549</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>18.25600265340046</v>
+        <v>18.25600265339625</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>26.05765918926585</v>
+        <v>26.0576591892613</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-0.1835291491930171</v>
+        <v>-0.1835291491924487</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>27.457559301505</v>
+        <v>27.45755930149511</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>33.39566842261974</v>
+        <v>33.39566842257005</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>10.26726778107406</v>
+        <v>10.26726778104257</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>20.61875803582467</v>
+        <v>20.61875803579818</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>25.36659476083668</v>
+        <v>25.36659476079712</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>17.70947072048847</v>
+        <v>17.7094707203998</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>25.50982058820609</v>
+        <v>25.50982058817891</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>28.78767991863169</v>
+        <v>28.78767991853016</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.61098092676361</v>
+        <v>29.61098092670222</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>35.79565160090493</v>
+        <v>35.79565160085195</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>38.17496555608255</v>
+        <v>38.17496555605754</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>19.62836854834581</v>
+        <v>19.62836854831557</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>34.91863913567983</v>
+        <v>34.91863913564538</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>39.72125110455619</v>
+        <v>39.72125110456767</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>4.915834121047912</v>
+        <v>4.915834121059167</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>32.55959550843096</v>
+        <v>32.55959550847098</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>38.49840476429682</v>
+        <v>38.49840476428182</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>15.36678903524757</v>
+        <v>15.36678903521494</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>25.7202318143165</v>
+        <v>25.72023181429546</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>30.46850651806136</v>
+        <v>30.46850651803397</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>22.81038261724592</v>
+        <v>22.81038261717964</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>30.61213519666711</v>
+        <v>30.61213519665654</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>2.479770890976116</v>
+        <v>2.479770890994306</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>30.12085994451212</v>
+        <v>30.12085994451019</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>36.05895509854753</v>
+        <v>36.05895509856299</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>12.93073766319919</v>
+        <v>12.93073766316917</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>23.28225239365992</v>
+        <v>23.28225239366538</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>28.03007373704571</v>
+        <v>28.03007373700365</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>20.37295906564345</v>
+        <v>20.37295906554022</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>28.17333151040254</v>
+        <v>28.17333151039674</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>31.45118121903505</v>
+        <v>31.45118121901652</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>32.27448560953002</v>
+        <v>32.2744856095124</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>38.45916027169557</v>
+        <v>38.45916027168511</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>40.83846906746356</v>
+        <v>40.83846906745094</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>22.29184569923797</v>
+        <v>22.2918456992382</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>37.58213827505409</v>
+        <v>37.58213827506421</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>42.38473881641727</v>
+        <v>42.38473881638839</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>7.579398147945714</v>
+        <v>7.579398147945827</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>35.22316013657104</v>
+        <v>35.22316013653091</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>41.1619554240396</v>
+        <v>41.16195542402517</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>18.03052292101274</v>
+        <v>18.03052292097499</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.38399017476747</v>
+        <v>28.38399017475166</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>33.13224949585305</v>
+        <v>33.13224949582201</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>25.47413496663996</v>
+        <v>25.47413496655605</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>33.27591012302133</v>
+        <v>33.27591012297756</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-2.643212684899648</v>
+        <v>-2.643212684851218</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>24.99779924602598</v>
+        <v>24.99779924603087</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>30.93593129356924</v>
+        <v>30.93593129358425</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>7.807427826273798</v>
+        <v>7.807427826224458</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>18.15888634932429</v>
+        <v>18.15888634934715</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>22.90674376660292</v>
+        <v>22.90674376661599</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>15.24956925891189</v>
+        <v>15.24956925890644</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>23.04989054612264</v>
+        <v>23.04989054608558</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>26.3277684266439</v>
+        <v>26.32776842663299</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>27.15101111079509</v>
+        <v>27.15101111081032</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>33.3356643648678</v>
+        <v>33.33566436489861</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>35.71498809837027</v>
+        <v>35.71498809837675</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>17.16844211683776</v>
+        <v>17.16844211687766</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>32.45866189112388</v>
+        <v>32.45866189111467</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>37.26129756357415</v>
+        <v>37.2612975636535</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>2.455900444028718</v>
+        <v>2.455900444048272</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>30.09958530566002</v>
+        <v>30.0995853056574</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>36.03841748845463</v>
+        <v>36.03841748842189</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>12.90669892478713</v>
+        <v>12.90669892482964</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>23.2601099686064</v>
+        <v>23.26010996864654</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>28.00840536466371</v>
+        <v>28.00840536468758</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>20.35023099364145</v>
+        <v>20.35023099364395</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.15195499004523</v>
+        <v>28.1519549900458</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.33587121819625</v>
+        <v>29.33587121818511</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>30.15957069506868</v>
+        <v>30.1595706949957</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>36.34506431856454</v>
+        <v>36.345064318482</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>38.72467270564442</v>
+        <v>38.72467270559724</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>20.1762937177528</v>
+        <v>20.17629371774291</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>35.46832070737986</v>
+        <v>35.46832070738077</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>40.27166372208688</v>
+        <v>40.2716637221003</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>9.43266217088507</v>
+        <v>9.432662170911332</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>37.07599158758984</v>
+        <v>37.07599158758325</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>43.01480575777754</v>
+        <v>43.01480575778879</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>19.88368879706065</v>
+        <v>19.88368879714443</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>30.23723900654096</v>
+        <v>30.23723900654381</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>34.98556122331689</v>
+        <v>34.98556122338033</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>27.32746182218654</v>
+        <v>27.32746182211992</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>35.12929586704166</v>
+        <v>35.12929586704496</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>38.40751651364388</v>
+        <v>38.40751651363763</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>39.23160419755646</v>
+        <v>39.23160419756067</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>45.41715102184236</v>
+        <v>45.41715102185668</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>47.79677464756543</v>
+        <v>47.79677464752166</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>29.2483083332715</v>
+        <v>29.24830833324069</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>44.54048676865381</v>
+        <v>44.54048676860992</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>49.34388044509939</v>
+        <v>49.34388044510791</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>33.89033831850696</v>
+        <v>33.89033831851788</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>34.71410879300964</v>
+        <v>34.7141087929852</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>40.89965521405696</v>
+        <v>40.89965521401126</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>43.27926283235951</v>
+        <v>43.27926283238395</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>24.7307153363401</v>
+        <v>24.73071533627564</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>40.02289340614556</v>
+        <v>40.02289340612793</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>44.82623043754819</v>
+        <v>44.82623043755115</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>13.98665465687958</v>
+        <v>13.98665465690187</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>41.63019734529342</v>
+        <v>41.63019734533344</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>47.56900754829445</v>
+        <v>47.56900754830946</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>24.43805689621235</v>
+        <v>24.43805689613959</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>34.7917236575193</v>
+        <v>34.79172365752737</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>39.54003592962084</v>
+        <v>39.54003592961186</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>31.88193303057546</v>
+        <v>31.88193303048439</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>39.68386311835815</v>
+        <v>39.68386311828164</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>42.96207485769327</v>
+        <v>42.96207485766416</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>43.78623353777624</v>
+        <v>43.78623353776453</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>49.97183315962621</v>
+        <v>49.97183315957506</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>52.35145601589335</v>
+        <v>52.35145601582389</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>33.80282119449322</v>
+        <v>33.80282119449924</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>49.09515070973208</v>
+        <v>49.09515070971673</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>53.89853840198697</v>
+        <v>53.89853840196514</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>36.55410362263279</v>
+        <v>36.55410362264496</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>37.3778774753228</v>
+        <v>37.37787747530462</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>43.56342788366186</v>
+        <v>43.5634278836132</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>45.9430303418348</v>
+        <v>45.94303034182025</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>27.39445648505836</v>
+        <v>27.39445648504347</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>42.68665654349633</v>
+        <v>42.68665654346688</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>47.48998214587613</v>
+        <v>47.48998214584407</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>16.65023530903074</v>
+        <v>16.65023530902403</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>44.29377859838206</v>
+        <v>44.2937785983857</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>50.23257483200069</v>
+        <v>50.23257483200035</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>27.1018074057518</v>
+        <v>27.10180740571156</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>37.45549864105288</v>
+        <v>37.45549864102935</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>42.20379552979392</v>
+        <v>42.20379552976243</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>34.5457020035164</v>
+        <v>34.54570200346137</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>42.34765466739128</v>
+        <v>42.34765466735342</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>45.62585678418947</v>
+        <v>45.6258567841416</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>46.4500188411285</v>
+        <v>46.4500188410579</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>52.63562244946439</v>
+        <v>52.63562244935639</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>55.01524014527917</v>
+        <v>55.01524014520652</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>36.46657896403684</v>
+        <v>36.46657896394407</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>51.75893046691664</v>
+        <v>51.75893046689845</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>56.56230672916473</v>
+        <v>56.56230672911676</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>31.4301766625992</v>
+        <v>31.43017666258863</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>32.25388880881263</v>
+        <v>32.25388880879592</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>38.43941780897313</v>
+        <v>38.43941780895835</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>40.81903520552038</v>
+        <v>40.8190352055239</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>22.27053874006748</v>
+        <v>22.27053874006726</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>37.56266599347924</v>
+        <v>37.56266599355087</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>42.36602672821681</v>
+        <v>42.36602672825023</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>11.52671792077803</v>
+        <v>11.52671792076723</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>39.17018408453754</v>
+        <v>39.17018408456335</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>45.109017214944</v>
+        <v>45.10901721496674</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>21.97796372579211</v>
+        <v>21.9779637257164</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>32.33159875223288</v>
+        <v>32.33159875224618</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>37.07993171648462</v>
+        <v>37.07993171644813</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>29.42177834771912</v>
+        <v>29.42177834776925</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>37.22367985281466</v>
+        <v>37.22367985285058</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>40.50191014273281</v>
+        <v>40.50191014279432</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>41.32601049546184</v>
+        <v>41.32601049546082</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>47.51159269648605</v>
+        <v>47.51159269645149</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>49.89122533115363</v>
+        <v>49.89122533117171</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>31.3426415397783</v>
+        <v>31.34264153972396</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>46.6349202387633</v>
+        <v>46.63492023872737</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>51.43833163436517</v>
+        <v>51.43833163440314</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-2.763643367540507</v>
+        <v>-2.763643367520384</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>24.87671822721797</v>
+        <v>24.87671822725071</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>30.8148447463197</v>
+        <v>30.81484474632345</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>7.686774163509941</v>
+        <v>7.686774163545753</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>18.03787175571808</v>
+        <v>18.03787175577105</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>22.78574424380628</v>
+        <v>22.78574424379901</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>15.12877005052752</v>
+        <v>15.12877005049444</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>22.92880960317831</v>
+        <v>22.92880960319173</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>26.2067064457147</v>
+        <v>26.20670644565309</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>27.02992678332766</v>
+        <v>27.0299267833197</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>33.21441197591986</v>
+        <v>33.21441197592952</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>35.59373926207871</v>
+        <v>35.59373926207462</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>17.04761158067453</v>
+        <v>17.04761158064736</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>32.33739623716366</v>
+        <v>32.33739623715627</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>37.14004494401667</v>
+        <v>37.14004494402019</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>2.334794304161111</v>
+        <v>2.334794304116205</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.97782876892251</v>
+        <v>29.97782876884304</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>35.91665542198683</v>
+        <v>35.91665542196216</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>12.78536976067136</v>
+        <v>12.78536976067943</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>23.13841983601009</v>
+        <v>23.13841983604283</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>27.88673030521074</v>
+        <v>27.88673030524848</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>20.22875624708985</v>
+        <v>20.22875624710759</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>28.03019847998877</v>
+        <v>28.030198479989</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>1.78973296160888</v>
+        <v>1.789732961641281</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.43030781072861</v>
+        <v>29.4303078107659</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>35.3684303635485</v>
+        <v>35.36843036355577</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>12.24052607094069</v>
+        <v>12.24052607103892</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>22.59174020088318</v>
+        <v>22.59174020091956</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>27.33960274506007</v>
+        <v>27.33960274507803</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>19.6826250524793</v>
+        <v>19.68262505241404</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>27.48276063772102</v>
+        <v>27.48276063767736</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>30.76064857349815</v>
+        <v>30.76064857349462</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>31.58393990534075</v>
+        <v>31.58393990528504</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>37.76847788993058</v>
+        <v>37.76847788990523</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>40.14780440682392</v>
+        <v>40.14780440683279</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>21.60150823279418</v>
+        <v>21.60150823282726</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>36.89144395457316</v>
+        <v>36.89144395460011</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>41.69408667658053</v>
+        <v>41.69408667661941</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>6.888686895917605</v>
+        <v>6.888686895954212</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>34.53193463091071</v>
+        <v>34.53193463096301</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>40.47075731943374</v>
+        <v>40.47075731946376</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>17.33963796132565</v>
+        <v>17.33963796136317</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>27.69280458627572</v>
+        <v>27.69280458629527</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>32.44110511226114</v>
+        <v>32.4411051122724</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>24.78312755568703</v>
+        <v>24.78312755569795</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>32.58466582998045</v>
+        <v>32.58466582998079</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>4.453012393764144</v>
+        <v>4.453012393809619</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>32.0935878461018</v>
+        <v>32.09358784613852</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>38.03169643217319</v>
+        <v>38.03169643218001</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>14.90397534382175</v>
+        <v>14.90397534380469</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>25.25521394939114</v>
+        <v>25.25521394939944</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>30.00306111204378</v>
+        <v>30.00306111205788</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>22.34609278780153</v>
+        <v>22.34609278778095</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>30.1462509501236</v>
+        <v>30.14625095014668</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>33.42412926424078</v>
+        <v>33.42412926426249</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>34.24742397848121</v>
+        <v>34.24742397847655</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>40.43196595123999</v>
+        <v>40.43196595124317</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>42.81128730886809</v>
+        <v>42.81128730883148</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>24.26496477431721</v>
+        <v>24.26496477426958</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>39.55492248442812</v>
+        <v>39.55492248442437</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>44.35755377888705</v>
+        <v>44.35755377893048</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>9.552230313754141</v>
+        <v>9.552230313793249</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>37.19547865056251</v>
+        <v>37.19547865055534</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>43.13428737106307</v>
+        <v>43.1342873711074</v>
       </c>
     </row>
     <row r="786">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>30.35654233586724</v>
+        <v>30.35654233588906</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>35.10482747936743</v>
+        <v>35.10482747938948</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>27.44685929392501</v>
+        <v>27.44685929389488</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>35.2484201448778</v>
+        <v>35.24842014482959</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>-0.6699431057765501</v>
+        <v>-0.6699431056875333</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>26.97055522569787</v>
+        <v>26.97055522576847</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>32.90870070391048</v>
+        <v>32.90870070393436</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>9.780693585520741</v>
+        <v>9.780693585576561</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>20.13187598456415</v>
+        <v>20.13187598458257</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>24.87975922018103</v>
+        <v>24.87975922025072</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>17.22273106045026</v>
+        <v>17.22273106035147</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>25.02283806602776</v>
+        <v>25.02283806599172</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>28.30074455133712</v>
+        <v>28.30074455132268</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>29.12397755905187</v>
+        <v>29.12397755912099</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>35.3084981246364</v>
+        <v>35.30849812470723</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>37.68783441932982</v>
+        <v>37.68783441932845</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>19.14158927100192</v>
+        <v>19.1415892709502</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>34.43147418149675</v>
+        <v>34.43147418146071</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>39.23414060598355</v>
+        <v>39.23414060592262</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>4.428760689585548</v>
+        <v>4.428760689680022</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>32.07193190101651</v>
+        <v>32.07193190104414</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>38.01077751569545</v>
+        <v>38.01077751569557</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>14.87955532248515</v>
+        <v>14.87955532253779</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>25.23269021367964</v>
+        <v>25.23269021370533</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>29.9810114312383</v>
+        <v>29.98101143123819</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>22.3229834039052</v>
+        <v>22.32298340384506</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>30.12449309607547</v>
+        <v>30.12449309612879</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>31.30843911625783</v>
+        <v>31.3084391162841</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>32.13212889842799</v>
+        <v>32.13212889843822</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>38.31748981915672</v>
+        <v>38.31748981912352</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>40.69711076895379</v>
+        <v>40.69711076896982</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>22.14903264198171</v>
+        <v>22.14903264194897</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>37.44072473161151</v>
+        <v>37.4407247315641</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>42.24409850130877</v>
+        <v>42.24409850136038</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>11.40521330700227</v>
+        <v>11.40521330701342</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>39.04802907487164</v>
+        <v>39.04802907477523</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>44.98685667557794</v>
+        <v>44.98685667553906</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>21.85623608066686</v>
+        <v>21.85623608071109</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>32.20951013690768</v>
+        <v>32.2095101369228</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>36.95785817288908</v>
+        <v>36.95785817291079</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>29.2999051066941</v>
+        <v>29.29990510662168</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>37.10152484550207</v>
+        <v>37.1015248455347</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>40.37977409878982</v>
+        <v>40.37977409877709</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>41.20385208720717</v>
+        <v>41.20385208722058</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>47.38926620760259</v>
+        <v>47.3892662075778</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>49.76890239434539</v>
+        <v>49.76890239432811</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>31.22073694767807</v>
+        <v>31.22073694764487</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>46.51258047794073</v>
+        <v>46.51258047799166</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>51.31600490717693</v>
+        <v>51.3160049072099</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>35.86289756025775</v>
+        <v>35.86289756021057</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>36.68665833867539</v>
+        <v>36.68665833861616</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>42.87207205591238</v>
+        <v>42.87207205581643</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>45.25169223743848</v>
+        <v>45.25169223737151</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>26.70344560374116</v>
+        <v>26.70344560364555</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>41.99528877065785</v>
+        <v>41.99528877066899</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>46.79865655848488</v>
+        <v>46.79865655848795</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>15.959197136701</v>
+        <v>15.95919713659356</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>43.60222617233507</v>
+        <v>43.60222617225901</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>49.54104980709366</v>
+        <v>49.54104980702147</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>26.41059552157305</v>
+        <v>26.41059552158316</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>36.76398612734937</v>
+        <v>36.76398612733857</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>41.51232421955893</v>
+        <v>41.51232421955802</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>33.85436765618505</v>
+        <v>33.85436765615219</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>41.65608343568914</v>
+        <v>41.65608343565356</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>44.93432378288054</v>
+        <v>44.93432378283393</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>45.75847276658266</v>
+        <v>45.75847276655219</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>51.94393968307799</v>
+        <v>51.94393968301546</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>54.32357510066998</v>
+        <v>54.32357510067294</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>35.77524114910983</v>
+        <v>35.77524114906663</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>51.06723575625716</v>
+        <v>51.06723575626398</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>55.87065420246137</v>
+        <v>55.87065420243408</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>38.52664225310349</v>
+        <v>38.52664225311236</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>39.35040641021391</v>
+        <v>39.3504064101698</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>45.53582411448502</v>
+        <v>45.53582411447729</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>47.91543913616118</v>
+        <v>47.91543913613424</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>29.36716614137714</v>
+        <v>29.3671661413228</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>44.65903129704174</v>
+        <v>44.65903129704947</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>49.46238765581057</v>
+        <v>49.46238765582569</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>18.62275717876702</v>
+        <v>18.62275717874553</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>46.26578681578616</v>
+        <v>46.26578681577138</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>52.20459648178206</v>
+        <v>52.20459648174659</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>29.07432541922998</v>
+        <v>29.07432541921213</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>39.42774049873691</v>
+        <v>39.4277404987302</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>44.17606320807903</v>
+        <v>44.1760632080655</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>36.51811601764001</v>
+        <v>36.51811601759692</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>44.31985437316058</v>
+        <v>44.31985437308055</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>47.59808509778821</v>
+        <v>47.59808509779776</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>48.42223745846792</v>
+        <v>48.42223745842199</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>54.60770836185822</v>
+        <v>54.60770836180683</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>56.98733861913848</v>
+        <v>56.98733861910608</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>38.43897830713314</v>
+        <v>38.43897830702196</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>53.73099490192584</v>
+        <v>53.73099490191288</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>58.53440191830299</v>
+        <v>58.53440191828832</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>33.40274337629506</v>
+        <v>33.40274337633554</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>34.22644582712331</v>
+        <v>34.22644582712093</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>40.41184212381648</v>
+        <v>40.41184212379886</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>42.79147208333694</v>
+        <v>42.79147208334354</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>24.24327647980312</v>
+        <v>24.24327647979289</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>39.53506883191932</v>
+        <v>39.53506883187487</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>44.33846032187222</v>
+        <v>44.33846032187063</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>13.49926787270539</v>
+        <v>13.49926787276076</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>41.14222038542033</v>
+        <v>41.14222038538531</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>47.08106694683971</v>
+        <v>47.08106694688541</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>23.95050982415814</v>
+        <v>23.95050982420327</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>34.30386869615489</v>
+        <v>34.3038686961491</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>39.0522274799651</v>
+        <v>39.052227479956</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>31.39422044655072</v>
+        <v>31.39422044656789</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>39.19590764438198</v>
+        <v>39.1959076443556</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>42.47416654122247</v>
+        <v>42.47416654125487</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>43.29825719856257</v>
+        <v>43.29825719850732</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>49.483706694624</v>
+        <v>49.4837066946854</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>51.8633518904324</v>
+        <v>51.86335189046832</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>33.31506896758134</v>
+        <v>33.31506896765592</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>48.60701276018568</v>
+        <v>48.6070127602639</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>53.41045490864366</v>
+        <v>53.41045490868061</v>
       </c>
     </row>
   </sheetData>
